--- a/03_ips_clean/09_data_web/01_nhb.xlsx
+++ b/03_ips_clean/09_data_web/01_nhb.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -438,10 +438,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>70.8724587121267</v>
+        <v>74.2723809633457</v>
       </c>
       <c r="C2" t="n">
-        <v>83.5903944054926</v>
+        <v>86.4889859202567</v>
       </c>
       <c r="D2" t="n">
-        <v>76.2363098430802</v>
+        <v>78.6057658548169</v>
       </c>
       <c r="E2" t="n">
-        <v>64.8651061909397</v>
+        <v>78.168744736987</v>
       </c>
       <c r="F2" t="n">
-        <v>75.1186699247798</v>
+        <v>72.9106823392243</v>
       </c>
       <c r="G2" t="n">
-        <v>67.9783605961738</v>
+        <v>79.788783147084</v>
       </c>
       <c r="H2" t="n">
-        <v>63.0590249690704</v>
+        <v>84.9732258390853</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2453814959788</v>
+        <v>52.9343663022081</v>
       </c>
       <c r="J2" t="n">
-        <v>68.854442517048</v>
+        <v>70.0556639957238</v>
       </c>
       <c r="K2" t="n">
-        <v>74.5343693022609</v>
+        <v>80.9567512334388</v>
       </c>
       <c r="L2" t="n">
-        <v>78.0576586218855</v>
+        <v>79.2346903610847</v>
       </c>
       <c r="M2" t="n">
-        <v>61.8739236202895</v>
+        <v>78.1085616914336</v>
       </c>
       <c r="N2" t="n">
-        <v>43.3913815380721</v>
+        <v>50.9300611024511</v>
       </c>
       <c r="O2" t="n">
-        <v>69.4940474212728</v>
+        <v>74.5281862808492</v>
       </c>
       <c r="P2" t="n">
-        <v>78.4144523681454</v>
+        <v>81.7042822064869</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.6915935978936</v>
+        <v>76.2854012070656</v>
       </c>
       <c r="R2" t="n">
-        <v>64.8300361493343</v>
+        <v>73.4071299242067</v>
       </c>
       <c r="S2" t="n">
-        <v>60.6535417945207</v>
+        <v>69.6292171549287</v>
       </c>
       <c r="T2" t="n">
-        <v>71.6699579947643</v>
+        <v>73.8100356732589</v>
       </c>
       <c r="U2" t="n">
-        <v>82.1969733062644</v>
+        <v>82.9836561147717</v>
       </c>
       <c r="V2" t="n">
-        <v>61.2816096575566</v>
+        <v>57.4376723547445</v>
       </c>
       <c r="W2" t="n">
-        <v>59.4951905742899</v>
+        <v>69.6903588251035</v>
       </c>
       <c r="X2" t="n">
-        <v>81.6661516805438</v>
+        <v>83.9116074063532</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.5533391072243</v>
+        <v>77.2641456651557</v>
       </c>
       <c r="Z2" t="n">
-        <v>69.0900941749378</v>
+        <v>72.5459295182528</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.1686220256108</v>
+        <v>75.1502258645451</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.9727206907941</v>
+        <v>76.733370015354</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.6095320541762</v>
+        <v>61.9727044151632</v>
       </c>
       <c r="AD2" t="n">
-        <v>75.1058280653535</v>
+        <v>76.7189973767333</v>
       </c>
       <c r="AE2" t="n">
-        <v>73.4383198332512</v>
+        <v>80.8598274235867</v>
       </c>
       <c r="AF2" t="n">
-        <v>68.0581852280324</v>
+        <v>66.9233819972156</v>
       </c>
       <c r="AG2" t="n">
-        <v>79.4910380081263</v>
+        <v>74.3604668904865</v>
       </c>
       <c r="AH2" t="n">
-        <v>67.8763336564983</v>
+        <v>78.6552740328156</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>71.4735565864466</v>
+        <v>74.5160458527568</v>
       </c>
       <c r="C3" t="n">
-        <v>84.3157809749717</v>
+        <v>88.1838674621053</v>
       </c>
       <c r="D3" t="n">
-        <v>78.0918976499512</v>
+        <v>81.0250225806446</v>
       </c>
       <c r="E3" t="n">
-        <v>66.1108542303105</v>
+        <v>81.4661157786085</v>
       </c>
       <c r="F3" t="n">
-        <v>76.11231569897</v>
+        <v>73.9854784506092</v>
       </c>
       <c r="G3" t="n">
-        <v>79.1238955687265</v>
+        <v>83.8595437923882</v>
       </c>
       <c r="H3" t="n">
-        <v>75.0771205801001</v>
+        <v>76.7659175804128</v>
       </c>
       <c r="I3" t="n">
-        <v>57.0060651289631</v>
+        <v>57.9568228440979</v>
       </c>
       <c r="J3" t="n">
-        <v>76.4746464130983</v>
+        <v>78.8582182736422</v>
       </c>
       <c r="K3" t="n">
-        <v>74.6619477946753</v>
+        <v>80.6866532461481</v>
       </c>
       <c r="L3" t="n">
-        <v>79.5873226915101</v>
+        <v>81.1156960480245</v>
       </c>
       <c r="M3" t="n">
-        <v>78.4742129014621</v>
+        <v>79.4776050786434</v>
       </c>
       <c r="N3" t="n">
-        <v>43.8558338521579</v>
+        <v>48.0417957418423</v>
       </c>
       <c r="O3" t="n">
-        <v>69.9747647124396</v>
+        <v>75.7698748918244</v>
       </c>
       <c r="P3" t="n">
-        <v>80.0257151738061</v>
+        <v>84.2755750871074</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.6055305455982</v>
+        <v>73.9593743881683</v>
       </c>
       <c r="R3" t="n">
-        <v>69.0354175224381</v>
+        <v>72.9498245082067</v>
       </c>
       <c r="S3" t="n">
-        <v>63.1489485891663</v>
+        <v>71.9822744423328</v>
       </c>
       <c r="T3" t="n">
-        <v>75.3259188596929</v>
+        <v>79.5135994784081</v>
       </c>
       <c r="U3" t="n">
-        <v>81.1101101444335</v>
+        <v>82.7830954170744</v>
       </c>
       <c r="V3" t="n">
-        <v>57.4029818741153</v>
+        <v>54.340069893618</v>
       </c>
       <c r="W3" t="n">
-        <v>62.6988469915248</v>
+        <v>70.4678703271882</v>
       </c>
       <c r="X3" t="n">
-        <v>80.3912879770534</v>
+        <v>80.0846542876778</v>
       </c>
       <c r="Y3" t="n">
-        <v>78.8283156200152</v>
+        <v>78.8113400770159</v>
       </c>
       <c r="Z3" t="n">
-        <v>69.967972158321</v>
+        <v>73.5848547846206</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.2095568965625</v>
+        <v>76.3112248105234</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.6533623731045</v>
+        <v>78.0427003353524</v>
       </c>
       <c r="AC3" t="n">
-        <v>63.56592029307</v>
+        <v>64.7942067230399</v>
       </c>
       <c r="AD3" t="n">
-        <v>76.1998415130556</v>
+        <v>77.095575346868</v>
       </c>
       <c r="AE3" t="n">
-        <v>72.6203467092635</v>
+        <v>77.8383319758575</v>
       </c>
       <c r="AF3" t="n">
-        <v>66.8253251176236</v>
+        <v>67.0989324299688</v>
       </c>
       <c r="AG3" t="n">
-        <v>81.0247422811654</v>
+        <v>79.5172584202455</v>
       </c>
       <c r="AH3" t="n">
-        <v>67.4805488569596</v>
+        <v>76.0834436535553</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>71.6622813389832</v>
+        <v>75.2959801748211</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0808348647806</v>
+        <v>87.8358743640336</v>
       </c>
       <c r="D4" t="n">
-        <v>75.8505181020622</v>
+        <v>76.7894123839846</v>
       </c>
       <c r="E4" t="n">
-        <v>56.9342046572557</v>
+        <v>73.5930199513981</v>
       </c>
       <c r="F4" t="n">
-        <v>75.1873936513628</v>
+        <v>74.9821519104121</v>
       </c>
       <c r="G4" t="n">
-        <v>79.5199185850545</v>
+        <v>84.7205890743224</v>
       </c>
       <c r="H4" t="n">
-        <v>74.8206579755533</v>
+        <v>78.083448427675</v>
       </c>
       <c r="I4" t="n">
-        <v>56.0292481129088</v>
+        <v>58.1371134407411</v>
       </c>
       <c r="J4" t="n">
-        <v>74.6638121950997</v>
+        <v>76.5897624438085</v>
       </c>
       <c r="K4" t="n">
-        <v>73.0338027839569</v>
+        <v>80.589074330563</v>
       </c>
       <c r="L4" t="n">
-        <v>80.2425828598043</v>
+        <v>82.2579168687065</v>
       </c>
       <c r="M4" t="n">
-        <v>75.4036806099668</v>
+        <v>78.1808956798747</v>
       </c>
       <c r="N4" t="n">
-        <v>46.2132162821181</v>
+        <v>50.2788137461018</v>
       </c>
       <c r="O4" t="n">
-        <v>71.3148959473038</v>
+        <v>75.0170536212619</v>
       </c>
       <c r="P4" t="n">
-        <v>80.1706238776901</v>
+        <v>84.7895944751727</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.3700306026694</v>
+        <v>77.2442500328123</v>
       </c>
       <c r="R4" t="n">
-        <v>68.3368011379214</v>
+        <v>74.1100066921707</v>
       </c>
       <c r="S4" t="n">
-        <v>63.0467991848263</v>
+        <v>74.2667441257967</v>
       </c>
       <c r="T4" t="n">
-        <v>73.2990031300985</v>
+        <v>77.915686069757</v>
       </c>
       <c r="U4" t="n">
-        <v>80.2798611885276</v>
+        <v>82.5275787907745</v>
       </c>
       <c r="V4" t="n">
-        <v>57.9669955218109</v>
+        <v>57.2289355964911</v>
       </c>
       <c r="W4" t="n">
-        <v>65.5413581887946</v>
+        <v>73.0214117889051</v>
       </c>
       <c r="X4" t="n">
-        <v>80.2222946914257</v>
+        <v>81.1571559035962</v>
       </c>
       <c r="Y4" t="n">
-        <v>79.0719068390066</v>
+        <v>78.9400935172124</v>
       </c>
       <c r="Z4" t="n">
-        <v>70.6844083446609</v>
+        <v>74.1486095111193</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.3267934281198</v>
+        <v>79.3278636194468</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.9614252695976</v>
+        <v>81.1043106720369</v>
       </c>
       <c r="AC4" t="n">
-        <v>63.6379476283502</v>
+        <v>65.3274931247223</v>
       </c>
       <c r="AD4" t="n">
-        <v>76.0958231461026</v>
+        <v>75.9429844406685</v>
       </c>
       <c r="AE4" t="n">
-        <v>72.1331972533868</v>
+        <v>78.5834483102287</v>
       </c>
       <c r="AF4" t="n">
-        <v>66.4186967427374</v>
+        <v>67.6527876913441</v>
       </c>
       <c r="AG4" t="n">
-        <v>82.3843991919522</v>
+        <v>82.2117402866406</v>
       </c>
       <c r="AH4" t="n">
-        <v>66.0167094740254</v>
+        <v>75.1700547844383</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>70.7447768199255</v>
+        <v>74.2817321716655</v>
       </c>
       <c r="C5" t="n">
-        <v>81.8275466621552</v>
+        <v>85.1878536293463</v>
       </c>
       <c r="D5" t="n">
-        <v>72.5154405486915</v>
+        <v>74.1391877179514</v>
       </c>
       <c r="E5" t="n">
-        <v>60.9069622762899</v>
+        <v>76.5636837739748</v>
       </c>
       <c r="F5" t="n">
-        <v>74.2983318859775</v>
+        <v>72.8479750491393</v>
       </c>
       <c r="G5" t="n">
-        <v>78.3820256293771</v>
+        <v>83.1930926895002</v>
       </c>
       <c r="H5" t="n">
-        <v>73.7711095146333</v>
+        <v>77.249849182209</v>
       </c>
       <c r="I5" t="n">
-        <v>55.5295170086238</v>
+        <v>56.3205544712029</v>
       </c>
       <c r="J5" t="n">
-        <v>73.0204317475666</v>
+        <v>74.974390716043</v>
       </c>
       <c r="K5" t="n">
-        <v>70.8871233171559</v>
+        <v>78.31712927308</v>
       </c>
       <c r="L5" t="n">
-        <v>78.9947040245497</v>
+        <v>78.7453946006305</v>
       </c>
       <c r="M5" t="n">
-        <v>73.8774377045198</v>
+        <v>77.2103226490818</v>
       </c>
       <c r="N5" t="n">
-        <v>48.0279958089041</v>
+        <v>54.5625161538201</v>
       </c>
       <c r="O5" t="n">
-        <v>70.6600756394093</v>
+        <v>74.3632532648616</v>
       </c>
       <c r="P5" t="n">
-        <v>77.4971465309617</v>
+        <v>81.7632138886899</v>
       </c>
       <c r="Q5" t="n">
-        <v>70.5320202124796</v>
+        <v>75.3336786717759</v>
       </c>
       <c r="R5" t="n">
-        <v>67.4301470968517</v>
+        <v>73.304701879269</v>
       </c>
       <c r="S5" t="n">
-        <v>62.7761016188134</v>
+        <v>74.0293242783971</v>
       </c>
       <c r="T5" t="n">
-        <v>72.0872688447906</v>
+        <v>76.2158543064717</v>
       </c>
       <c r="U5" t="n">
-        <v>80.8469224307369</v>
+        <v>82.686068518568</v>
       </c>
       <c r="V5" t="n">
-        <v>58.1018197474869</v>
+        <v>56.755050883535</v>
       </c>
       <c r="W5" t="n">
-        <v>64.2803672808287</v>
+        <v>71.573411960119</v>
       </c>
       <c r="X5" t="n">
-        <v>77.2186376362338</v>
+        <v>78.1858805867494</v>
       </c>
       <c r="Y5" t="n">
-        <v>75.1121580019277</v>
+        <v>74.3785266388877</v>
       </c>
       <c r="Z5" t="n">
-        <v>70.3728578684525</v>
+        <v>74.7229936905144</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.1482039845867</v>
+        <v>77.2806004163578</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.9470272446922</v>
+        <v>81.8593932727179</v>
       </c>
       <c r="AC5" t="n">
-        <v>62.0706332036918</v>
+        <v>64.8923672608623</v>
       </c>
       <c r="AD5" t="n">
-        <v>77.339243682386</v>
+        <v>77.6864674076401</v>
       </c>
       <c r="AE5" t="n">
-        <v>71.7221140229859</v>
+        <v>79.0835877850846</v>
       </c>
       <c r="AF5" t="n">
-        <v>67.1679598899113</v>
+        <v>68.1466122451057</v>
       </c>
       <c r="AG5" t="n">
-        <v>80.277236137006</v>
+        <v>78.0912885583262</v>
       </c>
       <c r="AH5" t="n">
-        <v>64.8811345293419</v>
+        <v>74.6592523621564</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>69.9656696600249</v>
+        <v>73.3618755430677</v>
       </c>
       <c r="C6" t="n">
-        <v>82.2339163924595</v>
+        <v>86.6313868434976</v>
       </c>
       <c r="D6" t="n">
-        <v>72.2114808951939</v>
+        <v>73.6032896083277</v>
       </c>
       <c r="E6" t="n">
-        <v>61.342034947802</v>
+        <v>75.8651003831102</v>
       </c>
       <c r="F6" t="n">
-        <v>72.4935248714814</v>
+        <v>73.8273832488581</v>
       </c>
       <c r="G6" t="n">
-        <v>77.9490196095513</v>
+        <v>82.9069488551415</v>
       </c>
       <c r="H6" t="n">
-        <v>69.2656225262373</v>
+        <v>71.6226395630353</v>
       </c>
       <c r="I6" t="n">
-        <v>56.3648958134648</v>
+        <v>56.8361035174246</v>
       </c>
       <c r="J6" t="n">
-        <v>71.8946923451434</v>
+        <v>73.1849658852619</v>
       </c>
       <c r="K6" t="n">
-        <v>69.5635896204928</v>
+        <v>76.8202169434345</v>
       </c>
       <c r="L6" t="n">
-        <v>76.6994867971513</v>
+        <v>76.9052801566029</v>
       </c>
       <c r="M6" t="n">
-        <v>72.4685100529719</v>
+        <v>75.38593473434</v>
       </c>
       <c r="N6" t="n">
-        <v>46.1193647571707</v>
+        <v>49.7531703734184</v>
       </c>
       <c r="O6" t="n">
-        <v>69.6339236091623</v>
+        <v>73.7974679973912</v>
       </c>
       <c r="P6" t="n">
-        <v>77.5387655910127</v>
+        <v>81.5863075248617</v>
       </c>
       <c r="Q6" t="n">
-        <v>69.1420438076355</v>
+        <v>73.7287782540023</v>
       </c>
       <c r="R6" t="n">
-        <v>66.0735505109023</v>
+        <v>71.7478582062427</v>
       </c>
       <c r="S6" t="n">
-        <v>60.2672043678052</v>
+        <v>72.0146627297048</v>
       </c>
       <c r="T6" t="n">
-        <v>73.652179385586</v>
+        <v>78.0570779452874</v>
       </c>
       <c r="U6" t="n">
-        <v>80.0165334269386</v>
+        <v>82.3527177490647</v>
       </c>
       <c r="V6" t="n">
-        <v>58.5314717149418</v>
+        <v>58.0530365146567</v>
       </c>
       <c r="W6" t="n">
-        <v>62.9758631137805</v>
+        <v>69.8421490839258</v>
       </c>
       <c r="X6" t="n">
-        <v>76.7813313907198</v>
+        <v>77.9876294367535</v>
       </c>
       <c r="Y6" t="n">
-        <v>71.4419631335888</v>
+        <v>69.9818502001118</v>
       </c>
       <c r="Z6" t="n">
-        <v>69.1881303301756</v>
+        <v>72.9675646467893</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.3542797828179</v>
+        <v>79.3351962200755</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.413656647924</v>
+        <v>79.9501975268871</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.1927861713215</v>
+        <v>65.7154582104028</v>
       </c>
       <c r="AD6" t="n">
-        <v>78.6690191891537</v>
+        <v>79.1674356880779</v>
       </c>
       <c r="AE6" t="n">
-        <v>70.8975701813933</v>
+        <v>76.9219419339193</v>
       </c>
       <c r="AF6" t="n">
-        <v>66.0592739974225</v>
+        <v>66.9677372245655</v>
       </c>
       <c r="AG6" t="n">
-        <v>82.0895339212519</v>
+        <v>81.6976677127</v>
       </c>
       <c r="AH6" t="n">
-        <v>63.9832385445858</v>
+        <v>72.9351582005012</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,207 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>69.4891585927678</v>
+        <v>73.8096526795045</v>
       </c>
       <c r="C7" t="n">
-        <v>78.5151041991982</v>
+        <v>81.2391455352104</v>
       </c>
       <c r="D7" t="n">
-        <v>70.6575515260338</v>
+        <v>72.954595636543</v>
       </c>
       <c r="E7" t="n">
-        <v>60.6803904477999</v>
+        <v>78.1776906531852</v>
       </c>
       <c r="F7" t="n">
-        <v>71.5702091712902</v>
+        <v>70.8775720303494</v>
       </c>
       <c r="G7" t="n">
-        <v>76.6874204665778</v>
+        <v>81.6820130749385</v>
       </c>
       <c r="H7" t="n">
-        <v>71.1933881994696</v>
+        <v>74.8273402552806</v>
       </c>
       <c r="I7" t="n">
-        <v>53.1685504966936</v>
+        <v>58.5975041118526</v>
       </c>
       <c r="J7" t="n">
-        <v>67.3533019743124</v>
+        <v>67.9562173375243</v>
       </c>
       <c r="K7" t="n">
-        <v>62.0800814483138</v>
+        <v>74.3670171504461</v>
       </c>
       <c r="L7" t="n">
-        <v>78.736837493301</v>
+        <v>80.0197571131324</v>
       </c>
       <c r="M7" t="n">
-        <v>68.7817623159307</v>
+        <v>72.8063334344486</v>
       </c>
       <c r="N7" t="n">
-        <v>45.7225046523959</v>
+        <v>51.9572127086422</v>
       </c>
       <c r="O7" t="n">
-        <v>70.5784313915193</v>
+        <v>75.7198847365602</v>
       </c>
       <c r="P7" t="n">
-        <v>75.2208208379246</v>
+        <v>79.3080743964433</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.2501981272704</v>
+        <v>71.9302189037101</v>
       </c>
       <c r="R7" t="n">
-        <v>64.7011710383619</v>
+        <v>72.1846642791147</v>
       </c>
       <c r="S7" t="n">
-        <v>58.3946524635514</v>
+        <v>68.4825976499126</v>
       </c>
       <c r="T7" t="n">
-        <v>71.5626989825545</v>
+        <v>73.4994269738181</v>
       </c>
       <c r="U7" t="n">
-        <v>80.3641650932033</v>
+        <v>82.281044750844</v>
       </c>
       <c r="V7" t="n">
-        <v>52.1780287210554</v>
+        <v>52.2456997835826</v>
       </c>
       <c r="W7" t="n">
-        <v>60.8883635891429</v>
+        <v>68.7371758974286</v>
       </c>
       <c r="X7" t="n">
-        <v>77.6158637129008</v>
+        <v>81.8016211164769</v>
       </c>
       <c r="Y7" t="n">
-        <v>70.0839289562531</v>
+        <v>68.3744504216479</v>
       </c>
       <c r="Z7" t="n">
-        <v>63.8374459960066</v>
+        <v>65.8992299906386</v>
       </c>
       <c r="AA7" t="n">
-        <v>77.3365823686736</v>
+        <v>74.6403814771429</v>
       </c>
       <c r="AB7" t="n">
-        <v>73.9529614891185</v>
+        <v>75.3681903100207</v>
       </c>
       <c r="AC7" t="n">
-        <v>58.8243429759441</v>
+        <v>62.0226913896862</v>
       </c>
       <c r="AD7" t="n">
-        <v>76.0624241724211</v>
+        <v>75.5343883553719</v>
       </c>
       <c r="AE7" t="n">
-        <v>68.2762240455582</v>
+        <v>76.1428016041079</v>
       </c>
       <c r="AF7" t="n">
-        <v>66.2061982073142</v>
+        <v>68.626863097453</v>
       </c>
       <c r="AG7" t="n">
-        <v>80.2827465251423</v>
+        <v>76.9833393482279</v>
       </c>
       <c r="AH7" t="n">
-        <v>57.5911032330666</v>
+        <v>66.2903248959</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="n">
+        <v>69.9339684742013</v>
+      </c>
+      <c r="C8" t="n">
+        <v>83.4409993197543</v>
+      </c>
+      <c r="D8" t="n">
+        <v>68.7094640110948</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.5021207922001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>59.6229428770737</v>
+      </c>
+      <c r="G8" t="n">
+        <v>80.8602205258787</v>
+      </c>
+      <c r="H8" t="n">
+        <v>72.2639903568483</v>
+      </c>
+      <c r="I8" t="n">
+        <v>50.7691458471706</v>
+      </c>
+      <c r="J8" t="n">
+        <v>68.7253990638747</v>
+      </c>
+      <c r="K8" t="n">
+        <v>72.6654768110271</v>
+      </c>
+      <c r="L8" t="n">
+        <v>73.1511589646311</v>
+      </c>
+      <c r="M8" t="n">
+        <v>72.1949719182722</v>
+      </c>
+      <c r="N8" t="n">
+        <v>46.3368390803267</v>
+      </c>
+      <c r="O8" t="n">
+        <v>66.7665120916795</v>
+      </c>
+      <c r="P8" t="n">
+        <v>77.5718456113033</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>67.6075826373746</v>
+      </c>
+      <c r="R8" t="n">
+        <v>67.7381087603737</v>
+      </c>
+      <c r="S8" t="n">
+        <v>65.631533804211</v>
+      </c>
+      <c r="T8" t="n">
+        <v>67.2870174769014</v>
+      </c>
+      <c r="U8" t="n">
+        <v>76.6856251327959</v>
+      </c>
+      <c r="V8" t="n">
+        <v>43.3062800008677</v>
+      </c>
+      <c r="W8" t="n">
+        <v>59.5513181353164</v>
+      </c>
+      <c r="X8" t="n">
+        <v>77.7701194246396</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>67.5905494774617</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>67.545850020365</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>68.5739602767987</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>69.4538204996043</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>62.1013695628824</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>70.4163848225402</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>79.7081525621126</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>57.9897679862652</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>70.274516041872</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>65.3147070455671</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/01_nhb.xlsx
+++ b/03_ips_clean/09_data_web/01_nhb.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>74.2723809633457</v>
+        <v>73.1715365914391</v>
       </c>
       <c r="C2" t="n">
-        <v>86.4889859202567</v>
+        <v>85.0884179288642</v>
       </c>
       <c r="D2" t="n">
-        <v>78.6057658548169</v>
+        <v>77.552179970535</v>
       </c>
       <c r="E2" t="n">
-        <v>78.168744736987</v>
+        <v>77.1565418768134</v>
       </c>
       <c r="F2" t="n">
-        <v>72.9106823392243</v>
+        <v>69.9381031322407</v>
       </c>
       <c r="G2" t="n">
-        <v>79.788783147084</v>
+        <v>78.7605336498922</v>
       </c>
       <c r="H2" t="n">
-        <v>84.9732258390853</v>
+        <v>81.0428108124167</v>
       </c>
       <c r="I2" t="n">
-        <v>52.9343663022081</v>
+        <v>51.9168204654945</v>
       </c>
       <c r="J2" t="n">
-        <v>70.0556639957238</v>
+        <v>68.9371969370142</v>
       </c>
       <c r="K2" t="n">
-        <v>80.9567512334388</v>
+        <v>80.4293092070428</v>
       </c>
       <c r="L2" t="n">
-        <v>79.2346903610847</v>
+        <v>79.3403663487717</v>
       </c>
       <c r="M2" t="n">
-        <v>78.1085616914336</v>
+        <v>76.5048766442888</v>
       </c>
       <c r="N2" t="n">
-        <v>50.9300611024511</v>
+        <v>48.5507566729316</v>
       </c>
       <c r="O2" t="n">
-        <v>74.5281862808492</v>
+        <v>72.0162334495592</v>
       </c>
       <c r="P2" t="n">
-        <v>81.7042822064869</v>
+        <v>82.153201901132</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.2854012070656</v>
+        <v>74.7245162385647</v>
       </c>
       <c r="R2" t="n">
-        <v>73.4071299242067</v>
+        <v>72.3950160731773</v>
       </c>
       <c r="S2" t="n">
-        <v>69.6292171549287</v>
+        <v>66.2601762331731</v>
       </c>
       <c r="T2" t="n">
-        <v>73.8100356732589</v>
+        <v>69.8649571654792</v>
       </c>
       <c r="U2" t="n">
-        <v>82.9836561147717</v>
+        <v>84.0736335839613</v>
       </c>
       <c r="V2" t="n">
-        <v>57.4376723547445</v>
+        <v>54.5174449192624</v>
       </c>
       <c r="W2" t="n">
-        <v>69.6903588251035</v>
+        <v>69.3240981800739</v>
       </c>
       <c r="X2" t="n">
-        <v>83.9116074063532</v>
+        <v>84.189005963352</v>
       </c>
       <c r="Y2" t="n">
-        <v>77.2641456651557</v>
+        <v>77.0264816985452</v>
       </c>
       <c r="Z2" t="n">
-        <v>72.5459295182528</v>
+        <v>71.7230948409131</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.1502258645451</v>
+        <v>74.6970416888548</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.733370015354</v>
+        <v>76.6111356334965</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.9727044151632</v>
+        <v>60.1623415116918</v>
       </c>
       <c r="AD2" t="n">
-        <v>76.7189973767333</v>
+        <v>74.9734596613415</v>
       </c>
       <c r="AE2" t="n">
-        <v>80.8598274235867</v>
+        <v>81.3728646452936</v>
       </c>
       <c r="AF2" t="n">
-        <v>66.9233819972156</v>
+        <v>66.3599076923931</v>
       </c>
       <c r="AG2" t="n">
-        <v>74.3604668904865</v>
+        <v>74.1344724566644</v>
       </c>
       <c r="AH2" t="n">
-        <v>78.6552740328156</v>
+        <v>77.9291582846611</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>74.5160458527568</v>
+        <v>73.1676578547002</v>
       </c>
       <c r="C3" t="n">
-        <v>88.1838674621053</v>
+        <v>87.1909216831593</v>
       </c>
       <c r="D3" t="n">
-        <v>81.0250225806446</v>
+        <v>79.2835252342534</v>
       </c>
       <c r="E3" t="n">
-        <v>81.4661157786085</v>
+        <v>80.8927651430469</v>
       </c>
       <c r="F3" t="n">
-        <v>73.9854784506092</v>
+        <v>71.5815626239976</v>
       </c>
       <c r="G3" t="n">
-        <v>83.8595437923882</v>
+        <v>81.704808888434</v>
       </c>
       <c r="H3" t="n">
-        <v>76.7659175804128</v>
+        <v>70.5514209113276</v>
       </c>
       <c r="I3" t="n">
-        <v>57.9568228440979</v>
+        <v>57.2258716370686</v>
       </c>
       <c r="J3" t="n">
-        <v>78.8582182736422</v>
+        <v>76.1901641838475</v>
       </c>
       <c r="K3" t="n">
-        <v>80.6866532461481</v>
+        <v>83.2247744097037</v>
       </c>
       <c r="L3" t="n">
-        <v>81.1156960480245</v>
+        <v>79.1879605186108</v>
       </c>
       <c r="M3" t="n">
-        <v>79.4776050786434</v>
+        <v>77.7611681905163</v>
       </c>
       <c r="N3" t="n">
-        <v>48.0417957418423</v>
+        <v>46.2916709524969</v>
       </c>
       <c r="O3" t="n">
-        <v>75.7698748918244</v>
+        <v>72.7825002896569</v>
       </c>
       <c r="P3" t="n">
-        <v>84.2755750871074</v>
+        <v>83.9305299497591</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.9593743881683</v>
+        <v>70.63313388718</v>
       </c>
       <c r="R3" t="n">
-        <v>72.9498245082067</v>
+        <v>72.1256756554882</v>
       </c>
       <c r="S3" t="n">
-        <v>71.9822744423328</v>
+        <v>69.0667721158062</v>
       </c>
       <c r="T3" t="n">
-        <v>79.5135994784081</v>
+        <v>77.6983190439467</v>
       </c>
       <c r="U3" t="n">
-        <v>82.7830954170744</v>
+        <v>82.474930389406</v>
       </c>
       <c r="V3" t="n">
-        <v>54.340069893618</v>
+        <v>51.475904703916</v>
       </c>
       <c r="W3" t="n">
-        <v>70.4678703271882</v>
+        <v>69.3102994651515</v>
       </c>
       <c r="X3" t="n">
-        <v>80.0846542876778</v>
+        <v>79.0387064918637</v>
       </c>
       <c r="Y3" t="n">
-        <v>78.8113400770159</v>
+        <v>77.582048286888</v>
       </c>
       <c r="Z3" t="n">
-        <v>73.5848547846206</v>
+        <v>74.1080455830554</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.3112248105234</v>
+        <v>73.2402034487331</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.0427003353524</v>
+        <v>76.9613049135404</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.7942067230399</v>
+        <v>64.1799123214321</v>
       </c>
       <c r="AD3" t="n">
-        <v>77.095575346868</v>
+        <v>75.6761285603266</v>
       </c>
       <c r="AE3" t="n">
-        <v>77.8383319758575</v>
+        <v>75.8672927391823</v>
       </c>
       <c r="AF3" t="n">
-        <v>67.0989324299688</v>
+        <v>66.992888585595</v>
       </c>
       <c r="AG3" t="n">
-        <v>79.5172584202455</v>
+        <v>79.6904059580138</v>
       </c>
       <c r="AH3" t="n">
-        <v>76.0834436535553</v>
+        <v>76.4199296168947</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>75.2959801748211</v>
+        <v>73.9003059834258</v>
       </c>
       <c r="C4" t="n">
-        <v>87.8358743640336</v>
+        <v>87.2681651429345</v>
       </c>
       <c r="D4" t="n">
-        <v>76.7894123839846</v>
+        <v>76.1936503227755</v>
       </c>
       <c r="E4" t="n">
-        <v>73.5930199513981</v>
+        <v>74.0830987457454</v>
       </c>
       <c r="F4" t="n">
-        <v>74.9821519104121</v>
+        <v>73.5714958469195</v>
       </c>
       <c r="G4" t="n">
-        <v>84.7205890743224</v>
+        <v>82.4467944110056</v>
       </c>
       <c r="H4" t="n">
-        <v>78.083448427675</v>
+        <v>76.8608308643649</v>
       </c>
       <c r="I4" t="n">
-        <v>58.1371134407411</v>
+        <v>57.7772903709254</v>
       </c>
       <c r="J4" t="n">
-        <v>76.5897624438085</v>
+        <v>73.5019418419171</v>
       </c>
       <c r="K4" t="n">
-        <v>80.589074330563</v>
+        <v>80.7559577234235</v>
       </c>
       <c r="L4" t="n">
-        <v>82.2579168687065</v>
+        <v>81.2622406051687</v>
       </c>
       <c r="M4" t="n">
-        <v>78.1808956798747</v>
+        <v>75.7148588297241</v>
       </c>
       <c r="N4" t="n">
-        <v>50.2788137461018</v>
+        <v>47.6138478050708</v>
       </c>
       <c r="O4" t="n">
-        <v>75.0170536212619</v>
+        <v>73.1332292351918</v>
       </c>
       <c r="P4" t="n">
-        <v>84.7895944751727</v>
+        <v>84.1425784560213</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.2442500328123</v>
+        <v>75.3655936310078</v>
       </c>
       <c r="R4" t="n">
-        <v>74.1100066921707</v>
+        <v>71.9478559372032</v>
       </c>
       <c r="S4" t="n">
-        <v>74.2667441257967</v>
+        <v>72.6963587328278</v>
       </c>
       <c r="T4" t="n">
-        <v>77.915686069757</v>
+        <v>76.0906096848085</v>
       </c>
       <c r="U4" t="n">
-        <v>82.5275787907745</v>
+        <v>83.8759563867829</v>
       </c>
       <c r="V4" t="n">
-        <v>57.2289355964911</v>
+        <v>54.2707171266625</v>
       </c>
       <c r="W4" t="n">
-        <v>73.0214117889051</v>
+        <v>72.6088335469313</v>
       </c>
       <c r="X4" t="n">
-        <v>81.1571559035962</v>
+        <v>81.174028146654</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.9400935172124</v>
+        <v>78.1381804536487</v>
       </c>
       <c r="Z4" t="n">
-        <v>74.1486095111193</v>
+        <v>72.5822449730718</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.3278636194468</v>
+        <v>78.7722429144132</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.1043106720369</v>
+        <v>78.9877527300103</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.3274931247223</v>
+        <v>64.602111178278</v>
       </c>
       <c r="AD4" t="n">
-        <v>75.9429844406685</v>
+        <v>74.4258021299431</v>
       </c>
       <c r="AE4" t="n">
-        <v>78.5834483102287</v>
+        <v>77.7598478031935</v>
       </c>
       <c r="AF4" t="n">
-        <v>67.6527876913441</v>
+        <v>66.5325744640993</v>
       </c>
       <c r="AG4" t="n">
-        <v>82.2117402866406</v>
+        <v>83.5498835204623</v>
       </c>
       <c r="AH4" t="n">
-        <v>75.1700547844383</v>
+        <v>74.5049512679782</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>74.2817321716655</v>
+        <v>73.1391307031862</v>
       </c>
       <c r="C5" t="n">
-        <v>85.1878536293463</v>
+        <v>85.1821719187125</v>
       </c>
       <c r="D5" t="n">
-        <v>74.1391877179514</v>
+        <v>74.0002845940934</v>
       </c>
       <c r="E5" t="n">
-        <v>76.5636837739748</v>
+        <v>76.8097411384266</v>
       </c>
       <c r="F5" t="n">
-        <v>72.8479750491393</v>
+        <v>72.1497429993361</v>
       </c>
       <c r="G5" t="n">
-        <v>83.1930926895002</v>
+        <v>82.2543491308472</v>
       </c>
       <c r="H5" t="n">
-        <v>77.249849182209</v>
+        <v>74.6398712674127</v>
       </c>
       <c r="I5" t="n">
-        <v>56.3205544712029</v>
+        <v>55.4643945995882</v>
       </c>
       <c r="J5" t="n">
-        <v>74.974390716043</v>
+        <v>73.9731654605552</v>
       </c>
       <c r="K5" t="n">
-        <v>78.31712927308</v>
+        <v>79.5283546485346</v>
       </c>
       <c r="L5" t="n">
-        <v>78.7453946006305</v>
+        <v>76.5836634814045</v>
       </c>
       <c r="M5" t="n">
-        <v>77.2103226490818</v>
+        <v>75.8521917592554</v>
       </c>
       <c r="N5" t="n">
-        <v>54.5625161538201</v>
+        <v>54.4047225202848</v>
       </c>
       <c r="O5" t="n">
-        <v>74.3632532648616</v>
+        <v>73.7379934713989</v>
       </c>
       <c r="P5" t="n">
-        <v>81.7632138886899</v>
+        <v>82.1012545668698</v>
       </c>
       <c r="Q5" t="n">
-        <v>75.3336786717759</v>
+        <v>73.8866149785072</v>
       </c>
       <c r="R5" t="n">
-        <v>73.304701879269</v>
+        <v>71.4576705238525</v>
       </c>
       <c r="S5" t="n">
-        <v>74.0293242783971</v>
+        <v>72.129592132121</v>
       </c>
       <c r="T5" t="n">
-        <v>76.2158543064717</v>
+        <v>69.6298391245544</v>
       </c>
       <c r="U5" t="n">
-        <v>82.686068518568</v>
+        <v>83.2831538901854</v>
       </c>
       <c r="V5" t="n">
-        <v>56.755050883535</v>
+        <v>54.7401629118212</v>
       </c>
       <c r="W5" t="n">
-        <v>71.573411960119</v>
+        <v>71.4295282750327</v>
       </c>
       <c r="X5" t="n">
-        <v>78.1858805867494</v>
+        <v>77.2616963801282</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.3785266388877</v>
+        <v>72.3458275858301</v>
       </c>
       <c r="Z5" t="n">
-        <v>74.7229936905144</v>
+        <v>75.5142558479636</v>
       </c>
       <c r="AA5" t="n">
-        <v>77.2806004163578</v>
+        <v>75.6374735076396</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.8593932727179</v>
+        <v>81.7851120456061</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.8923672608623</v>
+        <v>65.0369290362531</v>
       </c>
       <c r="AD5" t="n">
-        <v>77.6864674076401</v>
+        <v>77.3209825761377</v>
       </c>
       <c r="AE5" t="n">
-        <v>79.0835877850846</v>
+        <v>78.6913821223965</v>
       </c>
       <c r="AF5" t="n">
-        <v>68.1466122451057</v>
+        <v>67.7429862983642</v>
       </c>
       <c r="AG5" t="n">
-        <v>78.0912885583262</v>
+        <v>76.0334117596815</v>
       </c>
       <c r="AH5" t="n">
-        <v>74.6592523621564</v>
+        <v>73.611672688121</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>73.3618755430677</v>
+        <v>72.7867867004391</v>
       </c>
       <c r="C6" t="n">
-        <v>86.6313868434976</v>
+        <v>87.9454592981028</v>
       </c>
       <c r="D6" t="n">
-        <v>73.6032896083277</v>
+        <v>74.607791390963</v>
       </c>
       <c r="E6" t="n">
-        <v>75.8651003831102</v>
+        <v>73.8303363168934</v>
       </c>
       <c r="F6" t="n">
-        <v>73.8273832488581</v>
+        <v>75.7211503697648</v>
       </c>
       <c r="G6" t="n">
-        <v>82.9069488551415</v>
+        <v>84.2815632346268</v>
       </c>
       <c r="H6" t="n">
-        <v>71.6226395630353</v>
+        <v>69.5992058311824</v>
       </c>
       <c r="I6" t="n">
-        <v>56.8361035174246</v>
+        <v>58.2147665642475</v>
       </c>
       <c r="J6" t="n">
-        <v>73.1849658852619</v>
+        <v>72.374950353133</v>
       </c>
       <c r="K6" t="n">
-        <v>76.8202169434345</v>
+        <v>78.6652409712507</v>
       </c>
       <c r="L6" t="n">
-        <v>76.9052801566029</v>
+        <v>74.1025895408057</v>
       </c>
       <c r="M6" t="n">
-        <v>75.38593473434</v>
+        <v>74.1601350458048</v>
       </c>
       <c r="N6" t="n">
-        <v>49.7531703734184</v>
+        <v>49.2791554815385</v>
       </c>
       <c r="O6" t="n">
-        <v>73.7974679973912</v>
+        <v>72.9965792937069</v>
       </c>
       <c r="P6" t="n">
-        <v>81.5863075248617</v>
+        <v>80.5351360906631</v>
       </c>
       <c r="Q6" t="n">
-        <v>73.7287782540023</v>
+        <v>72.9250888577226</v>
       </c>
       <c r="R6" t="n">
-        <v>71.7478582062427</v>
+        <v>69.7740601377734</v>
       </c>
       <c r="S6" t="n">
-        <v>72.0146627297048</v>
+        <v>71.8461045737767</v>
       </c>
       <c r="T6" t="n">
-        <v>78.0570779452874</v>
+        <v>76.0806682858633</v>
       </c>
       <c r="U6" t="n">
-        <v>82.3527177490647</v>
+        <v>83.3807710959735</v>
       </c>
       <c r="V6" t="n">
-        <v>58.0530365146567</v>
+        <v>57.018942759504</v>
       </c>
       <c r="W6" t="n">
-        <v>69.8421490839258</v>
+        <v>70.8439591015348</v>
       </c>
       <c r="X6" t="n">
-        <v>77.9876294367535</v>
+        <v>78.6081253584853</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.9818502001118</v>
+        <v>69.8669616363007</v>
       </c>
       <c r="Z6" t="n">
-        <v>72.9675646467893</v>
+        <v>72.5736908791776</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.3351962200755</v>
+        <v>78.3353837178358</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.9501975268871</v>
+        <v>79.2087783260109</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.7154582104028</v>
+        <v>64.4444900268268</v>
       </c>
       <c r="AD6" t="n">
-        <v>79.1674356880779</v>
+        <v>79.3296893178038</v>
       </c>
       <c r="AE6" t="n">
-        <v>76.9219419339193</v>
+        <v>74.246798708402</v>
       </c>
       <c r="AF6" t="n">
-        <v>66.9677372245655</v>
+        <v>65.5774695024236</v>
       </c>
       <c r="AG6" t="n">
-        <v>81.6976677127</v>
+        <v>81.7133980923637</v>
       </c>
       <c r="AH6" t="n">
-        <v>72.9351582005012</v>
+        <v>74.1938077623341</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>73.8096526795045</v>
+        <v>70.0962991608319</v>
       </c>
       <c r="C7" t="n">
-        <v>81.2391455352104</v>
+        <v>76.8301579590565</v>
       </c>
       <c r="D7" t="n">
-        <v>72.954595636543</v>
+        <v>70.7391786560831</v>
       </c>
       <c r="E7" t="n">
-        <v>78.1776906531852</v>
+        <v>76.5852503047754</v>
       </c>
       <c r="F7" t="n">
-        <v>70.8775720303494</v>
+        <v>67.0117077295995</v>
       </c>
       <c r="G7" t="n">
-        <v>81.6820130749385</v>
+        <v>78.9480731578401</v>
       </c>
       <c r="H7" t="n">
-        <v>74.8273402552806</v>
+        <v>74.2260229552745</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5975041118526</v>
+        <v>59.9335622964408</v>
       </c>
       <c r="J7" t="n">
-        <v>67.9562173375243</v>
+        <v>62.1030365535496</v>
       </c>
       <c r="K7" t="n">
-        <v>74.3670171504461</v>
+        <v>72.0292730222719</v>
       </c>
       <c r="L7" t="n">
-        <v>80.0197571131324</v>
+        <v>76.4196254013691</v>
       </c>
       <c r="M7" t="n">
-        <v>72.8063334344486</v>
+        <v>69.3943710395897</v>
       </c>
       <c r="N7" t="n">
-        <v>51.9572127086422</v>
+        <v>49.5823035031877</v>
       </c>
       <c r="O7" t="n">
-        <v>75.7198847365602</v>
+        <v>72.6844796127551</v>
       </c>
       <c r="P7" t="n">
-        <v>79.3080743964433</v>
+        <v>76.812660863642</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.9302189037101</v>
+        <v>66.797874009474</v>
       </c>
       <c r="R7" t="n">
-        <v>72.1846642791147</v>
+        <v>69.2489174301879</v>
       </c>
       <c r="S7" t="n">
-        <v>68.4825976499126</v>
+        <v>63.0138234719706</v>
       </c>
       <c r="T7" t="n">
-        <v>73.4994269738181</v>
+        <v>70.4012110618865</v>
       </c>
       <c r="U7" t="n">
-        <v>82.281044750844</v>
+        <v>80.1520591356586</v>
       </c>
       <c r="V7" t="n">
-        <v>52.2456997835826</v>
+        <v>51.0964181212839</v>
       </c>
       <c r="W7" t="n">
-        <v>68.7371758974286</v>
+        <v>66.4509947961719</v>
       </c>
       <c r="X7" t="n">
-        <v>81.8016211164769</v>
+        <v>80.126326148036</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.3744504216479</v>
+        <v>63.8476218797877</v>
       </c>
       <c r="Z7" t="n">
-        <v>65.8992299906386</v>
+        <v>61.7499106793738</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.6403814771429</v>
+        <v>69.7404817367665</v>
       </c>
       <c r="AB7" t="n">
-        <v>75.3681903100207</v>
+        <v>70.6576294047781</v>
       </c>
       <c r="AC7" t="n">
-        <v>62.0226913896862</v>
+        <v>58.3963453463442</v>
       </c>
       <c r="AD7" t="n">
-        <v>75.5343883553719</v>
+        <v>71.1604183644406</v>
       </c>
       <c r="AE7" t="n">
-        <v>76.1428016041079</v>
+        <v>74.2470161525359</v>
       </c>
       <c r="AF7" t="n">
-        <v>68.626863097453</v>
+        <v>67.7099051466408</v>
       </c>
       <c r="AG7" t="n">
-        <v>76.9833393482279</v>
+        <v>75.2316482665131</v>
       </c>
       <c r="AH7" t="n">
-        <v>66.2903248959</v>
+        <v>62.8206969645426</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,207 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>69.9339684742013</v>
+        <v>69.5289774478855</v>
       </c>
       <c r="C8" t="n">
-        <v>83.4409993197543</v>
+        <v>81.5816374151199</v>
       </c>
       <c r="D8" t="n">
-        <v>68.7094640110948</v>
+        <v>69.745278766382</v>
       </c>
       <c r="E8" t="n">
-        <v>74.5021207922001</v>
+        <v>74.1144661623994</v>
       </c>
       <c r="F8" t="n">
-        <v>59.6229428770737</v>
+        <v>66.2740152379148</v>
       </c>
       <c r="G8" t="n">
-        <v>80.8602205258787</v>
+        <v>79.2638739605032</v>
       </c>
       <c r="H8" t="n">
-        <v>72.2639903568483</v>
+        <v>71.7178275017689</v>
       </c>
       <c r="I8" t="n">
-        <v>50.7691458471706</v>
+        <v>61.7155318828163</v>
       </c>
       <c r="J8" t="n">
-        <v>68.7253990638747</v>
+        <v>69.0254431215269</v>
       </c>
       <c r="K8" t="n">
-        <v>72.6654768110271</v>
+        <v>73.03097966502</v>
       </c>
       <c r="L8" t="n">
-        <v>73.1511589646311</v>
+        <v>72.1564741075307</v>
       </c>
       <c r="M8" t="n">
-        <v>72.1949719182722</v>
+        <v>69.920111370295</v>
       </c>
       <c r="N8" t="n">
-        <v>46.3368390803267</v>
+        <v>49.7373893258665</v>
       </c>
       <c r="O8" t="n">
-        <v>66.7665120916795</v>
+        <v>66.6840404756416</v>
       </c>
       <c r="P8" t="n">
-        <v>77.5718456113033</v>
+        <v>75.2555822057366</v>
       </c>
       <c r="Q8" t="n">
-        <v>67.6075826373746</v>
+        <v>65.9762084724915</v>
       </c>
       <c r="R8" t="n">
-        <v>67.7381087603737</v>
+        <v>67.3262145341204</v>
       </c>
       <c r="S8" t="n">
-        <v>65.631533804211</v>
+        <v>62.4073690855943</v>
       </c>
       <c r="T8" t="n">
-        <v>67.2870174769014</v>
+        <v>71.3176902209838</v>
       </c>
       <c r="U8" t="n">
-        <v>76.6856251327959</v>
+        <v>77.2169420077621</v>
       </c>
       <c r="V8" t="n">
-        <v>43.3062800008677</v>
+        <v>49.4704272740117</v>
       </c>
       <c r="W8" t="n">
-        <v>59.5513181353164</v>
+        <v>61.0654581707399</v>
       </c>
       <c r="X8" t="n">
-        <v>77.7701194246396</v>
+        <v>75.9511829101454</v>
       </c>
       <c r="Y8" t="n">
-        <v>67.5905494774617</v>
+        <v>68.4423838407887</v>
       </c>
       <c r="Z8" t="n">
-        <v>67.545850020365</v>
+        <v>66.6111795397569</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.5739602767987</v>
+        <v>68.0559446473313</v>
       </c>
       <c r="AB8" t="n">
-        <v>69.4538204996043</v>
+        <v>69.1318650087418</v>
       </c>
       <c r="AC8" t="n">
-        <v>62.1013695628824</v>
+        <v>65.8421591731676</v>
       </c>
       <c r="AD8" t="n">
-        <v>70.4163848225402</v>
+        <v>70.8317717774886</v>
       </c>
       <c r="AE8" t="n">
-        <v>79.7081525621126</v>
+        <v>76.2753360291214</v>
       </c>
       <c r="AF8" t="n">
-        <v>57.9897679862652</v>
+        <v>61.5006401043672</v>
       </c>
       <c r="AG8" t="n">
-        <v>70.274516041872</v>
+        <v>70.2575522354269</v>
       </c>
       <c r="AH8" t="n">
-        <v>65.3147070455671</v>
+        <v>66.9513367262766</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="n">
+        <v>74.1571167190411</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89.9101680144985</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.4024040207384</v>
+      </c>
+      <c r="E9" t="n">
+        <v>83.189108369632</v>
+      </c>
+      <c r="F9" t="n">
+        <v>73.7470985892741</v>
+      </c>
+      <c r="G9" t="n">
+        <v>85.2513504260029</v>
+      </c>
+      <c r="H9" t="n">
+        <v>72.5330261082081</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64.2724198201015</v>
+      </c>
+      <c r="J9" t="n">
+        <v>74.9379514244559</v>
+      </c>
+      <c r="K9" t="n">
+        <v>82.2224365625599</v>
+      </c>
+      <c r="L9" t="n">
+        <v>72.8634013574841</v>
+      </c>
+      <c r="M9" t="n">
+        <v>73.2652946091996</v>
+      </c>
+      <c r="N9" t="n">
+        <v>52.2814458977704</v>
+      </c>
+      <c r="O9" t="n">
+        <v>73.8465081709558</v>
+      </c>
+      <c r="P9" t="n">
+        <v>82.3749305465531</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>77.0501209672431</v>
+      </c>
+      <c r="R9" t="n">
+        <v>73.249734460021</v>
+      </c>
+      <c r="S9" t="n">
+        <v>71.0845003858078</v>
+      </c>
+      <c r="T9" t="n">
+        <v>73.7818111848391</v>
+      </c>
+      <c r="U9" t="n">
+        <v>80.3570904866059</v>
+      </c>
+      <c r="V9" t="n">
+        <v>54.4856240817936</v>
+      </c>
+      <c r="W9" t="n">
+        <v>71.4237477625095</v>
+      </c>
+      <c r="X9" t="n">
+        <v>83.0678896260964</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>74.8417965943603</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>72.1517993065567</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>83.4371544582584</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>76.12189444892</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>68.107299855733</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>81.3639453540232</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>75.0932575600904</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>66.6846715013763</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>82.7023835189018</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>72.5817722543598</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/01_nhb.xlsx
+++ b/03_ips_clean/09_data_web/01_nhb.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>73.1715365914391</v>
+        <v>75.025476640962</v>
       </c>
       <c r="C2" t="n">
-        <v>85.0884179288642</v>
+        <v>83.2311746828095</v>
       </c>
       <c r="D2" t="n">
-        <v>77.552179970535</v>
+        <v>77.113352437216</v>
       </c>
       <c r="E2" t="n">
-        <v>77.1565418768134</v>
+        <v>74.0250786706601</v>
       </c>
       <c r="F2" t="n">
-        <v>69.9381031322407</v>
+        <v>77.6273932281828</v>
       </c>
       <c r="G2" t="n">
-        <v>78.7605336498922</v>
+        <v>76.2609382846589</v>
       </c>
       <c r="H2" t="n">
-        <v>81.0428108124167</v>
+        <v>82.8661687766661</v>
       </c>
       <c r="I2" t="n">
-        <v>51.9168204654945</v>
+        <v>64.0926719728859</v>
       </c>
       <c r="J2" t="n">
-        <v>68.9371969370142</v>
+        <v>74.8293516882808</v>
       </c>
       <c r="K2" t="n">
-        <v>80.4293092070428</v>
+        <v>78.1834947755273</v>
       </c>
       <c r="L2" t="n">
-        <v>79.3403663487717</v>
+        <v>80.5330166732426</v>
       </c>
       <c r="M2" t="n">
-        <v>76.5048766442888</v>
+        <v>77.0421921536402</v>
       </c>
       <c r="N2" t="n">
-        <v>48.5507566729316</v>
+        <v>55.7271609714886</v>
       </c>
       <c r="O2" t="n">
-        <v>72.0162334495592</v>
+        <v>76.8771053396658</v>
       </c>
       <c r="P2" t="n">
-        <v>82.153201901132</v>
+        <v>79.9268390313306</v>
       </c>
       <c r="Q2" t="n">
-        <v>74.7245162385647</v>
+        <v>76.3691496806122</v>
       </c>
       <c r="R2" t="n">
-        <v>72.3950160731773</v>
+        <v>72.5411133371667</v>
       </c>
       <c r="S2" t="n">
-        <v>66.2601762331731</v>
+        <v>68.7975832180532</v>
       </c>
       <c r="T2" t="n">
-        <v>69.8649571654792</v>
+        <v>75.9872203668282</v>
       </c>
       <c r="U2" t="n">
-        <v>84.0736335839613</v>
+        <v>82.0797911181577</v>
       </c>
       <c r="V2" t="n">
-        <v>54.5174449192624</v>
+        <v>64.1988683515127</v>
       </c>
       <c r="W2" t="n">
-        <v>69.3240981800739</v>
+        <v>73.3755029873254</v>
       </c>
       <c r="X2" t="n">
-        <v>84.189005963352</v>
+        <v>83.6551171081596</v>
       </c>
       <c r="Y2" t="n">
-        <v>77.0264816985452</v>
+        <v>78.9891620407736</v>
       </c>
       <c r="Z2" t="n">
-        <v>71.7230948409131</v>
+        <v>74.756333232761</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.6970416888548</v>
+        <v>75.1192243120727</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.6111356334965</v>
+        <v>76.8072160077237</v>
       </c>
       <c r="AC2" t="n">
-        <v>60.1623415116918</v>
+        <v>62.5934771572558</v>
       </c>
       <c r="AD2" t="n">
-        <v>74.9734596613415</v>
+        <v>76.0972886592224</v>
       </c>
       <c r="AE2" t="n">
-        <v>81.3728646452936</v>
+        <v>80.5343946890264</v>
       </c>
       <c r="AF2" t="n">
-        <v>66.3599076923931</v>
+        <v>71.4855413381089</v>
       </c>
       <c r="AG2" t="n">
-        <v>74.1344724566644</v>
+        <v>77.4395566268551</v>
       </c>
       <c r="AH2" t="n">
-        <v>77.9291582846611</v>
+        <v>77.2704924838359</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>73.1676578547002</v>
+        <v>75.5488925909295</v>
       </c>
       <c r="C3" t="n">
-        <v>87.1909216831593</v>
+        <v>84.8806494579238</v>
       </c>
       <c r="D3" t="n">
-        <v>79.2835252342534</v>
+        <v>78.7017694783274</v>
       </c>
       <c r="E3" t="n">
-        <v>80.8927651430469</v>
+        <v>77.7963183683157</v>
       </c>
       <c r="F3" t="n">
-        <v>71.5815626239976</v>
+        <v>77.7207470686348</v>
       </c>
       <c r="G3" t="n">
-        <v>81.704808888434</v>
+        <v>81.8293867222293</v>
       </c>
       <c r="H3" t="n">
-        <v>70.5514209113276</v>
+        <v>75.8344762405715</v>
       </c>
       <c r="I3" t="n">
-        <v>57.2258716370686</v>
+        <v>69.6593335155816</v>
       </c>
       <c r="J3" t="n">
-        <v>76.1901641838475</v>
+        <v>78.8315432352306</v>
       </c>
       <c r="K3" t="n">
-        <v>83.2247744097037</v>
+        <v>78.3933654982886</v>
       </c>
       <c r="L3" t="n">
-        <v>79.1879605186108</v>
+        <v>81.2516736891835</v>
       </c>
       <c r="M3" t="n">
-        <v>77.7611681905163</v>
+        <v>77.839602194119</v>
       </c>
       <c r="N3" t="n">
-        <v>46.2916709524969</v>
+        <v>56.2917902368954</v>
       </c>
       <c r="O3" t="n">
-        <v>72.7825002896569</v>
+        <v>76.8344999340074</v>
       </c>
       <c r="P3" t="n">
-        <v>83.9305299497591</v>
+        <v>81.5168748855229</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.63313388718</v>
+        <v>74.3263120404036</v>
       </c>
       <c r="R3" t="n">
-        <v>72.1256756554882</v>
+        <v>75.1142815840134</v>
       </c>
       <c r="S3" t="n">
-        <v>69.0667721158062</v>
+        <v>71.4737554886633</v>
       </c>
       <c r="T3" t="n">
-        <v>77.6983190439467</v>
+        <v>80.3284855690696</v>
       </c>
       <c r="U3" t="n">
-        <v>82.474930389406</v>
+        <v>80.6443193161057</v>
       </c>
       <c r="V3" t="n">
-        <v>51.475904703916</v>
+        <v>62.1695670877995</v>
       </c>
       <c r="W3" t="n">
-        <v>69.3102994651515</v>
+        <v>73.9050711866541</v>
       </c>
       <c r="X3" t="n">
-        <v>79.0387064918637</v>
+        <v>80.8144123677494</v>
       </c>
       <c r="Y3" t="n">
-        <v>77.582048286888</v>
+        <v>79.0374493910452</v>
       </c>
       <c r="Z3" t="n">
-        <v>74.1080455830554</v>
+        <v>75.7808846615385</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.2402034487331</v>
+        <v>75.3260444320408</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.9613049135404</v>
+        <v>77.5089518826729</v>
       </c>
       <c r="AC3" t="n">
-        <v>64.1799123214321</v>
+        <v>65.0247092767603</v>
       </c>
       <c r="AD3" t="n">
-        <v>75.6761285603266</v>
+        <v>76.2987538466259</v>
       </c>
       <c r="AE3" t="n">
-        <v>75.8672927391823</v>
+        <v>79.4067057066483</v>
       </c>
       <c r="AF3" t="n">
-        <v>66.992888585595</v>
+        <v>72.9381749485059</v>
       </c>
       <c r="AG3" t="n">
-        <v>79.6904059580138</v>
+        <v>81.4153609233938</v>
       </c>
       <c r="AH3" t="n">
-        <v>76.4199296168947</v>
+        <v>75.7357150977151</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>73.9003059834258</v>
+        <v>75.8301400883615</v>
       </c>
       <c r="C4" t="n">
-        <v>87.2681651429345</v>
+        <v>84.6022579409791</v>
       </c>
       <c r="D4" t="n">
-        <v>76.1936503227755</v>
+        <v>75.7528940596229</v>
       </c>
       <c r="E4" t="n">
-        <v>74.0830987457454</v>
+        <v>71.04991625529</v>
       </c>
       <c r="F4" t="n">
-        <v>73.5714958469195</v>
+        <v>78.7099507873088</v>
       </c>
       <c r="G4" t="n">
-        <v>82.4467944110056</v>
+        <v>83.1097553990885</v>
       </c>
       <c r="H4" t="n">
-        <v>76.8608308643649</v>
+        <v>77.0339280826548</v>
       </c>
       <c r="I4" t="n">
-        <v>57.7772903709254</v>
+        <v>69.56900281729</v>
       </c>
       <c r="J4" t="n">
-        <v>73.5019418419171</v>
+        <v>76.1110497879865</v>
       </c>
       <c r="K4" t="n">
-        <v>80.7559577234235</v>
+        <v>77.4848183673472</v>
       </c>
       <c r="L4" t="n">
-        <v>81.2622406051687</v>
+        <v>81.6563640696602</v>
       </c>
       <c r="M4" t="n">
-        <v>75.7148588297241</v>
+        <v>76.8152734896041</v>
       </c>
       <c r="N4" t="n">
-        <v>47.6138478050708</v>
+        <v>57.6821144384076</v>
       </c>
       <c r="O4" t="n">
-        <v>73.1332292351918</v>
+        <v>76.6974504921995</v>
       </c>
       <c r="P4" t="n">
-        <v>84.1425784560213</v>
+        <v>82.4054908958223</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.3655936310078</v>
+        <v>76.5596522231231</v>
       </c>
       <c r="R4" t="n">
-        <v>71.9478559372032</v>
+        <v>75.1242831996924</v>
       </c>
       <c r="S4" t="n">
-        <v>72.6963587328278</v>
+        <v>73.0670700061594</v>
       </c>
       <c r="T4" t="n">
-        <v>76.0906096848085</v>
+        <v>78.2255397952059</v>
       </c>
       <c r="U4" t="n">
-        <v>83.8759563867829</v>
+        <v>80.4193513429257</v>
       </c>
       <c r="V4" t="n">
-        <v>54.2707171266625</v>
+        <v>63.6395654265633</v>
       </c>
       <c r="W4" t="n">
-        <v>72.6088335469313</v>
+        <v>76.0363619197779</v>
       </c>
       <c r="X4" t="n">
-        <v>81.174028146654</v>
+        <v>81.5377861737612</v>
       </c>
       <c r="Y4" t="n">
-        <v>78.1381804536487</v>
+        <v>79.91267728446</v>
       </c>
       <c r="Z4" t="n">
-        <v>72.5822449730718</v>
+        <v>75.3934074781884</v>
       </c>
       <c r="AA4" t="n">
-        <v>78.7722429144132</v>
+        <v>77.8151085398098</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.9877527300103</v>
+        <v>79.5307314150411</v>
       </c>
       <c r="AC4" t="n">
-        <v>64.602111178278</v>
+        <v>65.2856197982226</v>
       </c>
       <c r="AD4" t="n">
-        <v>74.4258021299431</v>
+        <v>75.3047173651903</v>
       </c>
       <c r="AE4" t="n">
-        <v>77.7598478031935</v>
+        <v>79.4176775947884</v>
       </c>
       <c r="AF4" t="n">
-        <v>66.5325744640993</v>
+        <v>72.0420262010304</v>
       </c>
       <c r="AG4" t="n">
-        <v>83.5498835204623</v>
+        <v>84.1839536627531</v>
       </c>
       <c r="AH4" t="n">
-        <v>74.5049512679782</v>
+        <v>74.2810747731963</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>73.1391307031862</v>
+        <v>74.8623525545973</v>
       </c>
       <c r="C5" t="n">
-        <v>85.1821719187125</v>
+        <v>82.0555537506603</v>
       </c>
       <c r="D5" t="n">
-        <v>74.0002845940934</v>
+        <v>73.0795269658488</v>
       </c>
       <c r="E5" t="n">
-        <v>76.8097411384266</v>
+        <v>72.5418827318153</v>
       </c>
       <c r="F5" t="n">
-        <v>72.1497429993361</v>
+        <v>77.2899697431407</v>
       </c>
       <c r="G5" t="n">
-        <v>82.2543491308472</v>
+        <v>81.4158240728926</v>
       </c>
       <c r="H5" t="n">
-        <v>74.6398712674127</v>
+        <v>75.49836432261</v>
       </c>
       <c r="I5" t="n">
-        <v>55.4643945995882</v>
+        <v>68.0518581084137</v>
       </c>
       <c r="J5" t="n">
-        <v>73.9731654605552</v>
+        <v>74.7842784751921</v>
       </c>
       <c r="K5" t="n">
-        <v>79.5283546485346</v>
+        <v>74.6566980283799</v>
       </c>
       <c r="L5" t="n">
-        <v>76.5836634814045</v>
+        <v>79.1331167484006</v>
       </c>
       <c r="M5" t="n">
-        <v>75.8521917592554</v>
+        <v>76.007042236298</v>
       </c>
       <c r="N5" t="n">
-        <v>54.4047225202848</v>
+        <v>60.4631160587947</v>
       </c>
       <c r="O5" t="n">
-        <v>73.7379934713989</v>
+        <v>76.4611622136161</v>
       </c>
       <c r="P5" t="n">
-        <v>82.1012545668698</v>
+        <v>79.266106729386</v>
       </c>
       <c r="Q5" t="n">
-        <v>73.8866149785072</v>
+        <v>74.4877963007427</v>
       </c>
       <c r="R5" t="n">
-        <v>71.4576705238525</v>
+        <v>75.3959744179049</v>
       </c>
       <c r="S5" t="n">
-        <v>72.129592132121</v>
+        <v>71.8389518201527</v>
       </c>
       <c r="T5" t="n">
-        <v>69.6298391245544</v>
+        <v>76.0145576721728</v>
       </c>
       <c r="U5" t="n">
-        <v>83.2831538901854</v>
+        <v>81.0136360377383</v>
       </c>
       <c r="V5" t="n">
-        <v>54.7401629118212</v>
+        <v>65.5238254080199</v>
       </c>
       <c r="W5" t="n">
-        <v>71.4295282750327</v>
+        <v>74.1340684400586</v>
       </c>
       <c r="X5" t="n">
-        <v>77.2616963801282</v>
+        <v>78.2085940033129</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.3458275858301</v>
+        <v>74.7787061008389</v>
       </c>
       <c r="Z5" t="n">
-        <v>75.5142558479636</v>
+        <v>75.3326019780538</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.6374735076396</v>
+        <v>76.7626436136612</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.7851120456061</v>
+        <v>80.2977703151831</v>
       </c>
       <c r="AC5" t="n">
-        <v>65.0369290362531</v>
+        <v>64.459915580068</v>
       </c>
       <c r="AD5" t="n">
-        <v>77.3209825761377</v>
+        <v>77.5092230289053</v>
       </c>
       <c r="AE5" t="n">
-        <v>78.6913821223965</v>
+        <v>80.1646711862321</v>
       </c>
       <c r="AF5" t="n">
-        <v>67.7429862983642</v>
+        <v>72.0879627477978</v>
       </c>
       <c r="AG5" t="n">
-        <v>76.0334117596815</v>
+        <v>80.7313353336845</v>
       </c>
       <c r="AH5" t="n">
-        <v>73.611672688121</v>
+        <v>73.6835787989941</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>72.7867867004391</v>
+        <v>74.3373925269714</v>
       </c>
       <c r="C6" t="n">
-        <v>87.9454592981028</v>
+        <v>83.6856034110994</v>
       </c>
       <c r="D6" t="n">
-        <v>74.607791390963</v>
+        <v>73.3126880574038</v>
       </c>
       <c r="E6" t="n">
-        <v>73.8303363168934</v>
+        <v>72.590765207104</v>
       </c>
       <c r="F6" t="n">
-        <v>75.7211503697648</v>
+        <v>77.7763854685318</v>
       </c>
       <c r="G6" t="n">
-        <v>84.2815632346268</v>
+        <v>81.559108231035</v>
       </c>
       <c r="H6" t="n">
-        <v>69.5992058311824</v>
+        <v>70.662171863033</v>
       </c>
       <c r="I6" t="n">
-        <v>58.2147665642475</v>
+        <v>69.0079429897922</v>
       </c>
       <c r="J6" t="n">
-        <v>72.374950353133</v>
+        <v>73.8432195012318</v>
       </c>
       <c r="K6" t="n">
-        <v>78.6652409712507</v>
+        <v>73.7555092580888</v>
       </c>
       <c r="L6" t="n">
-        <v>74.1025895408057</v>
+        <v>78.091200644105</v>
       </c>
       <c r="M6" t="n">
-        <v>74.1601350458048</v>
+        <v>74.6054550947771</v>
       </c>
       <c r="N6" t="n">
-        <v>49.2791554815385</v>
+        <v>57.340427413852</v>
       </c>
       <c r="O6" t="n">
-        <v>72.9965792937069</v>
+        <v>76.0898788399741</v>
       </c>
       <c r="P6" t="n">
-        <v>80.5351360906631</v>
+        <v>79.1782004256806</v>
       </c>
       <c r="Q6" t="n">
-        <v>72.9250888577226</v>
+        <v>73.4745995928039</v>
       </c>
       <c r="R6" t="n">
-        <v>69.7740601377734</v>
+        <v>74.3666913989858</v>
       </c>
       <c r="S6" t="n">
-        <v>71.8461045737767</v>
+        <v>70.0260638290118</v>
       </c>
       <c r="T6" t="n">
-        <v>76.0806682858633</v>
+        <v>78.6646440598322</v>
       </c>
       <c r="U6" t="n">
-        <v>83.3807710959735</v>
+        <v>80.3535410910602</v>
       </c>
       <c r="V6" t="n">
-        <v>57.018942759504</v>
+        <v>66.6718389430869</v>
       </c>
       <c r="W6" t="n">
-        <v>70.8439591015348</v>
+        <v>72.623959451351</v>
       </c>
       <c r="X6" t="n">
-        <v>78.6081253584853</v>
+        <v>78.6518187177477</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.8669616363007</v>
+        <v>70.7957564190507</v>
       </c>
       <c r="Z6" t="n">
-        <v>72.5736908791776</v>
+        <v>74.0833545750396</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.3353837178358</v>
+        <v>78.4069332283537</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.2087783260109</v>
+        <v>79.1138810949821</v>
       </c>
       <c r="AC6" t="n">
-        <v>64.4444900268268</v>
+        <v>65.7795503587155</v>
       </c>
       <c r="AD6" t="n">
-        <v>79.3296893178038</v>
+        <v>78.4708808225788</v>
       </c>
       <c r="AE6" t="n">
-        <v>74.246798708402</v>
+        <v>78.6788235292722</v>
       </c>
       <c r="AF6" t="n">
-        <v>65.5774695024236</v>
+        <v>71.347237936902</v>
       </c>
       <c r="AG6" t="n">
-        <v>81.7133980923637</v>
+        <v>83.6279260586879</v>
       </c>
       <c r="AH6" t="n">
-        <v>74.1938077623341</v>
+        <v>72.4695043278451</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>70.0962991608319</v>
+        <v>70.0120913442734</v>
       </c>
       <c r="C7" t="n">
-        <v>76.8301579590565</v>
+        <v>75.8705940192778</v>
       </c>
       <c r="D7" t="n">
-        <v>70.7391786560831</v>
+        <v>68.8469979522538</v>
       </c>
       <c r="E7" t="n">
-        <v>76.5852503047754</v>
+        <v>71.9498047223471</v>
       </c>
       <c r="F7" t="n">
-        <v>67.0117077295995</v>
+        <v>73.752912567444</v>
       </c>
       <c r="G7" t="n">
-        <v>78.9480731578401</v>
+        <v>76.7367046327001</v>
       </c>
       <c r="H7" t="n">
-        <v>74.2260229552745</v>
+        <v>71.9546574453156</v>
       </c>
       <c r="I7" t="n">
-        <v>59.9335622964408</v>
+        <v>68.075356086178</v>
       </c>
       <c r="J7" t="n">
-        <v>62.1030365535496</v>
+        <v>67.0690360688389</v>
       </c>
       <c r="K7" t="n">
-        <v>72.0292730222719</v>
+        <v>65.7079588440938</v>
       </c>
       <c r="L7" t="n">
-        <v>76.4196254013691</v>
+        <v>78.0843156280129</v>
       </c>
       <c r="M7" t="n">
-        <v>69.3943710395897</v>
+        <v>70.2606972239958</v>
       </c>
       <c r="N7" t="n">
-        <v>49.5823035031877</v>
+        <v>56.0296191706869</v>
       </c>
       <c r="O7" t="n">
-        <v>72.6844796127551</v>
+        <v>73.7568862581298</v>
       </c>
       <c r="P7" t="n">
-        <v>76.812660863642</v>
+        <v>75.5761685614198</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.797874009474</v>
+        <v>67.3651063198766</v>
       </c>
       <c r="R7" t="n">
-        <v>69.2489174301879</v>
+        <v>71.8979992833759</v>
       </c>
       <c r="S7" t="n">
-        <v>63.0138234719706</v>
+        <v>66.2192403870255</v>
       </c>
       <c r="T7" t="n">
-        <v>70.4012110618865</v>
+        <v>75.1114798013933</v>
       </c>
       <c r="U7" t="n">
-        <v>80.1520591356586</v>
+        <v>77.6950493889525</v>
       </c>
       <c r="V7" t="n">
-        <v>51.0964181212839</v>
+        <v>60.5885357731194</v>
       </c>
       <c r="W7" t="n">
-        <v>66.4509947961719</v>
+        <v>67.9912518365873</v>
       </c>
       <c r="X7" t="n">
-        <v>80.126326148036</v>
+        <v>78.5343326771821</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.8476218797877</v>
+        <v>67.2876398528525</v>
       </c>
       <c r="Z7" t="n">
-        <v>61.7499106793738</v>
+        <v>64.9858665221845</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.7404817367665</v>
+        <v>71.3403034853286</v>
       </c>
       <c r="AB7" t="n">
-        <v>70.6576294047781</v>
+        <v>71.0938757610447</v>
       </c>
       <c r="AC7" t="n">
-        <v>58.3963453463442</v>
+        <v>60.4318461336363</v>
       </c>
       <c r="AD7" t="n">
-        <v>71.1604183644406</v>
+        <v>73.0213281678845</v>
       </c>
       <c r="AE7" t="n">
-        <v>74.2470161525359</v>
+        <v>72.5960801071779</v>
       </c>
       <c r="AF7" t="n">
-        <v>67.7099051466408</v>
+        <v>70.0234034845425</v>
       </c>
       <c r="AG7" t="n">
-        <v>75.2316482665131</v>
+        <v>78.0923194031556</v>
       </c>
       <c r="AH7" t="n">
-        <v>62.8206969645426</v>
+        <v>64.9986057245698</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>69.5289774478855</v>
+        <v>69.9702821701353</v>
       </c>
       <c r="C8" t="n">
-        <v>81.5816374151199</v>
+        <v>79.772428319428</v>
       </c>
       <c r="D8" t="n">
-        <v>69.745278766382</v>
+        <v>69.3837996089027</v>
       </c>
       <c r="E8" t="n">
-        <v>74.1144661623994</v>
+        <v>70.982538503462</v>
       </c>
       <c r="F8" t="n">
-        <v>66.2740152379148</v>
+        <v>72.0725437259494</v>
       </c>
       <c r="G8" t="n">
-        <v>79.2638739605032</v>
+        <v>79.0453510782733</v>
       </c>
       <c r="H8" t="n">
-        <v>71.7178275017689</v>
+        <v>68.8034048481725</v>
       </c>
       <c r="I8" t="n">
-        <v>61.7155318828163</v>
+        <v>69.0885617228424</v>
       </c>
       <c r="J8" t="n">
-        <v>69.0254431215269</v>
+        <v>72.367898122283</v>
       </c>
       <c r="K8" t="n">
-        <v>73.03097966502</v>
+        <v>67.6630424552808</v>
       </c>
       <c r="L8" t="n">
-        <v>72.1564741075307</v>
+        <v>76.3157722784561</v>
       </c>
       <c r="M8" t="n">
-        <v>69.920111370295</v>
+        <v>70.2989942013933</v>
       </c>
       <c r="N8" t="n">
-        <v>49.7373893258665</v>
+        <v>56.7462636879378</v>
       </c>
       <c r="O8" t="n">
-        <v>66.6840404756416</v>
+        <v>70.0668376329647</v>
       </c>
       <c r="P8" t="n">
-        <v>75.2555822057366</v>
+        <v>74.8240664802852</v>
       </c>
       <c r="Q8" t="n">
-        <v>65.9762084724915</v>
+        <v>66.8132955202953</v>
       </c>
       <c r="R8" t="n">
-        <v>67.3262145341204</v>
+        <v>69.4289510123383</v>
       </c>
       <c r="S8" t="n">
-        <v>62.4073690855943</v>
+        <v>63.3363636663375</v>
       </c>
       <c r="T8" t="n">
-        <v>71.3176902209838</v>
+        <v>72.3946637151491</v>
       </c>
       <c r="U8" t="n">
-        <v>77.2169420077621</v>
+        <v>75.6703924315788</v>
       </c>
       <c r="V8" t="n">
-        <v>49.4704272740117</v>
+        <v>59.0978033324043</v>
       </c>
       <c r="W8" t="n">
-        <v>61.0654581707399</v>
+        <v>64.7936291550601</v>
       </c>
       <c r="X8" t="n">
-        <v>75.9511829101454</v>
+        <v>74.7972899612016</v>
       </c>
       <c r="Y8" t="n">
-        <v>68.4423838407887</v>
+        <v>71.422958841362</v>
       </c>
       <c r="Z8" t="n">
-        <v>66.6111795397569</v>
+        <v>67.7716756694617</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.0559446473313</v>
+        <v>71.2785010054947</v>
       </c>
       <c r="AB8" t="n">
-        <v>69.1318650087418</v>
+        <v>70.2117511553315</v>
       </c>
       <c r="AC8" t="n">
-        <v>65.8421591731676</v>
+        <v>66.5547116520231</v>
       </c>
       <c r="AD8" t="n">
-        <v>70.8317717774886</v>
+        <v>73.8880371682435</v>
       </c>
       <c r="AE8" t="n">
-        <v>76.2753360291214</v>
+        <v>75.3880601098445</v>
       </c>
       <c r="AF8" t="n">
-        <v>61.5006401043672</v>
+        <v>66.7728905114413</v>
       </c>
       <c r="AG8" t="n">
-        <v>70.2575522354269</v>
+        <v>75.4536068212785</v>
       </c>
       <c r="AH8" t="n">
-        <v>66.9513367262766</v>
+        <v>66.3679937990371</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,207 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>74.1571167190411</v>
+        <v>75.3497076702768</v>
       </c>
       <c r="C9" t="n">
-        <v>89.9101680144985</v>
+        <v>85.1638613623954</v>
       </c>
       <c r="D9" t="n">
-        <v>74.4024040207384</v>
+        <v>74.4922212007888</v>
       </c>
       <c r="E9" t="n">
-        <v>83.189108369632</v>
+        <v>78.5169009653322</v>
       </c>
       <c r="F9" t="n">
-        <v>73.7470985892741</v>
+        <v>76.8105430317832</v>
       </c>
       <c r="G9" t="n">
-        <v>85.2513504260029</v>
+        <v>83.1445416316063</v>
       </c>
       <c r="H9" t="n">
-        <v>72.5330261082081</v>
+        <v>70.6702553931729</v>
       </c>
       <c r="I9" t="n">
-        <v>64.2724198201015</v>
+        <v>72.1798602252354</v>
       </c>
       <c r="J9" t="n">
-        <v>74.9379514244559</v>
+        <v>77.0166636493017</v>
       </c>
       <c r="K9" t="n">
-        <v>82.2224365625599</v>
+        <v>78.0792674898607</v>
       </c>
       <c r="L9" t="n">
-        <v>72.8634013574841</v>
+        <v>77.9047664287175</v>
       </c>
       <c r="M9" t="n">
-        <v>73.2652946091996</v>
+        <v>72.8007498065537</v>
       </c>
       <c r="N9" t="n">
-        <v>52.2814458977704</v>
+        <v>60.6164929416595</v>
       </c>
       <c r="O9" t="n">
-        <v>73.8465081709558</v>
+        <v>75.6645775961386</v>
       </c>
       <c r="P9" t="n">
-        <v>82.3749305465531</v>
+        <v>80.6706183905894</v>
       </c>
       <c r="Q9" t="n">
-        <v>77.0501209672431</v>
+        <v>77.083364839324</v>
       </c>
       <c r="R9" t="n">
-        <v>73.249734460021</v>
+        <v>75.0975286602858</v>
       </c>
       <c r="S9" t="n">
-        <v>71.0845003858078</v>
+        <v>70.9997617247119</v>
       </c>
       <c r="T9" t="n">
-        <v>73.7818111848391</v>
+        <v>76.1540761899149</v>
       </c>
       <c r="U9" t="n">
-        <v>80.3570904866059</v>
+        <v>78.2104081804681</v>
       </c>
       <c r="V9" t="n">
-        <v>54.4856240817936</v>
+        <v>65.0196412158041</v>
       </c>
       <c r="W9" t="n">
-        <v>71.4237477625095</v>
+        <v>74.2533035200985</v>
       </c>
       <c r="X9" t="n">
-        <v>83.0678896260964</v>
+        <v>80.1080870499796</v>
       </c>
       <c r="Y9" t="n">
-        <v>74.8417965943603</v>
+        <v>76.8941175492293</v>
       </c>
       <c r="Z9" t="n">
-        <v>72.1517993065567</v>
+        <v>73.860619690933</v>
       </c>
       <c r="AA9" t="n">
-        <v>83.4371544582584</v>
+        <v>81.3872693561548</v>
       </c>
       <c r="AB9" t="n">
-        <v>76.12189444892</v>
+        <v>75.7800080213847</v>
       </c>
       <c r="AC9" t="n">
-        <v>68.107299855733</v>
+        <v>70.0300323423345</v>
       </c>
       <c r="AD9" t="n">
-        <v>81.3639453540232</v>
+        <v>80.3827709998862</v>
       </c>
       <c r="AE9" t="n">
-        <v>75.0932575600904</v>
+        <v>77.5891261338241</v>
       </c>
       <c r="AF9" t="n">
-        <v>66.6846715013763</v>
+        <v>71.5020304236862</v>
       </c>
       <c r="AG9" t="n">
-        <v>82.7023835189018</v>
+        <v>84.8701121865049</v>
       </c>
       <c r="AH9" t="n">
-        <v>72.5817722543598</v>
+        <v>70.383194821974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="n">
+        <v>76.2521285465482</v>
+      </c>
+      <c r="C10" t="n">
+        <v>86.5452307718391</v>
+      </c>
+      <c r="D10" t="n">
+        <v>76.0439041082062</v>
+      </c>
+      <c r="E10" t="n">
+        <v>83.1824579209502</v>
+      </c>
+      <c r="F10" t="n">
+        <v>77.6970986151172</v>
+      </c>
+      <c r="G10" t="n">
+        <v>85.2792686849405</v>
+      </c>
+      <c r="H10" t="n">
+        <v>72.4386747627155</v>
+      </c>
+      <c r="I10" t="n">
+        <v>72.4294221406184</v>
+      </c>
+      <c r="J10" t="n">
+        <v>74.5234259588324</v>
+      </c>
+      <c r="K10" t="n">
+        <v>79.4919253678562</v>
+      </c>
+      <c r="L10" t="n">
+        <v>82.1078354785634</v>
+      </c>
+      <c r="M10" t="n">
+        <v>75.0481584015865</v>
+      </c>
+      <c r="N10" t="n">
+        <v>59.9577941141689</v>
+      </c>
+      <c r="O10" t="n">
+        <v>78.3130878523542</v>
+      </c>
+      <c r="P10" t="n">
+        <v>81.4351676345986</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>75.0732887919729</v>
+      </c>
+      <c r="R10" t="n">
+        <v>75.2743090877831</v>
+      </c>
+      <c r="S10" t="n">
+        <v>67.5157040495769</v>
+      </c>
+      <c r="T10" t="n">
+        <v>79.7045241792474</v>
+      </c>
+      <c r="U10" t="n">
+        <v>79.3299398299147</v>
+      </c>
+      <c r="V10" t="n">
+        <v>65.1617292117665</v>
+      </c>
+      <c r="W10" t="n">
+        <v>74.1579176918931</v>
+      </c>
+      <c r="X10" t="n">
+        <v>82.1713639628737</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>74.1986794230043</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>76.2346270889814</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>82.1928270755161</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>77.4692593327059</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>70.5823450993367</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>82.6257751844252</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>80.6561301585054</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>72.2057910158517</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>85.2123935751813</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>73.5895687106932</v>
       </c>
     </row>
   </sheetData>

--- a/03_ips_clean/09_data_web/01_nhb.xlsx
+++ b/03_ips_clean/09_data_web/01_nhb.xlsx
@@ -554,103 +554,103 @@
         <v>2015</v>
       </c>
       <c r="B2" t="n">
-        <v>75.025476640962</v>
+        <v>69.4491075743267</v>
       </c>
       <c r="C2" t="n">
-        <v>83.2311746828095</v>
+        <v>78.1290551514881</v>
       </c>
       <c r="D2" t="n">
-        <v>77.113352437216</v>
+        <v>71.7331298275642</v>
       </c>
       <c r="E2" t="n">
-        <v>74.0250786706601</v>
+        <v>69.2997472361129</v>
       </c>
       <c r="F2" t="n">
-        <v>77.6273932281828</v>
+        <v>69.0027557837148</v>
       </c>
       <c r="G2" t="n">
-        <v>76.2609382846589</v>
+        <v>70.9442692515415</v>
       </c>
       <c r="H2" t="n">
-        <v>82.8661687766661</v>
+        <v>73.941099905304</v>
       </c>
       <c r="I2" t="n">
-        <v>64.0926719728859</v>
+        <v>61.9394706628325</v>
       </c>
       <c r="J2" t="n">
-        <v>74.8293516882808</v>
+        <v>70.2886952029096</v>
       </c>
       <c r="K2" t="n">
-        <v>78.1834947755273</v>
+        <v>75.3135379992559</v>
       </c>
       <c r="L2" t="n">
-        <v>80.5330166732426</v>
+        <v>74.4726028138103</v>
       </c>
       <c r="M2" t="n">
-        <v>77.0421921536402</v>
+        <v>72.0328136046464</v>
       </c>
       <c r="N2" t="n">
-        <v>55.7271609714886</v>
+        <v>50.1623598776644</v>
       </c>
       <c r="O2" t="n">
-        <v>76.8771053396658</v>
+        <v>69.6889441882134</v>
       </c>
       <c r="P2" t="n">
-        <v>79.9268390313306</v>
+        <v>75.9209858811145</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.3691496806122</v>
+        <v>69.5799940785556</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5411133371667</v>
+        <v>67.512742475989</v>
       </c>
       <c r="S2" t="n">
-        <v>68.7975832180532</v>
+        <v>63.1011678048637</v>
       </c>
       <c r="T2" t="n">
-        <v>75.9872203668282</v>
+        <v>71.0888386244264</v>
       </c>
       <c r="U2" t="n">
-        <v>82.0797911181577</v>
+        <v>78.6253616566582</v>
       </c>
       <c r="V2" t="n">
-        <v>64.1988683515127</v>
+        <v>55.249085167556</v>
       </c>
       <c r="W2" t="n">
-        <v>73.3755029873254</v>
+        <v>66.7592542722072</v>
       </c>
       <c r="X2" t="n">
-        <v>83.6551171081596</v>
+        <v>78.0131356957134</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.9891620407736</v>
+        <v>71.7886952159305</v>
       </c>
       <c r="Z2" t="n">
-        <v>74.756333232761</v>
+        <v>67.1224515079903</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.1192243120727</v>
+        <v>68.0158681509885</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.8072160077237</v>
+        <v>71.4344582380598</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.5934771572558</v>
+        <v>55.6742952015225</v>
       </c>
       <c r="AD2" t="n">
-        <v>76.0972886592224</v>
+        <v>69.9832575246377</v>
       </c>
       <c r="AE2" t="n">
-        <v>80.5343946890264</v>
+        <v>73.9025172931799</v>
       </c>
       <c r="AF2" t="n">
-        <v>71.4855413381089</v>
+        <v>66.966168072956</v>
       </c>
       <c r="AG2" t="n">
-        <v>77.4395566268551</v>
+        <v>74.982784019794</v>
       </c>
       <c r="AH2" t="n">
-        <v>77.2704924838359</v>
+        <v>71.7483953227808</v>
       </c>
     </row>
     <row r="3">
@@ -658,103 +658,103 @@
         <v>2016</v>
       </c>
       <c r="B3" t="n">
-        <v>75.5488925909295</v>
+        <v>70.4903442193672</v>
       </c>
       <c r="C3" t="n">
-        <v>84.8806494579238</v>
+        <v>79.7903133122579</v>
       </c>
       <c r="D3" t="n">
-        <v>78.7017694783274</v>
+        <v>74.1758822650338</v>
       </c>
       <c r="E3" t="n">
-        <v>77.7963183683157</v>
+        <v>71.2852358393669</v>
       </c>
       <c r="F3" t="n">
-        <v>77.7207470686348</v>
+        <v>71.631854136647</v>
       </c>
       <c r="G3" t="n">
-        <v>81.8293867222293</v>
+        <v>75.2952253636632</v>
       </c>
       <c r="H3" t="n">
-        <v>75.8344762405715</v>
+        <v>69.2773045326578</v>
       </c>
       <c r="I3" t="n">
-        <v>69.6593335155816</v>
+        <v>65.2468420528437</v>
       </c>
       <c r="J3" t="n">
-        <v>78.8315432352306</v>
+        <v>72.2940973372658</v>
       </c>
       <c r="K3" t="n">
-        <v>78.3933654982886</v>
+        <v>77.2771219529691</v>
       </c>
       <c r="L3" t="n">
-        <v>81.2516736891835</v>
+        <v>74.9779788329596</v>
       </c>
       <c r="M3" t="n">
-        <v>77.839602194119</v>
+        <v>72.8372579119087</v>
       </c>
       <c r="N3" t="n">
-        <v>56.2917902368954</v>
+        <v>51.6475730895758</v>
       </c>
       <c r="O3" t="n">
-        <v>76.8344999340074</v>
+        <v>70.8810067904501</v>
       </c>
       <c r="P3" t="n">
-        <v>81.5168748855229</v>
+        <v>76.9324099906338</v>
       </c>
       <c r="Q3" t="n">
-        <v>74.3263120404036</v>
+        <v>67.9517535402067</v>
       </c>
       <c r="R3" t="n">
-        <v>75.1142815840134</v>
+        <v>71.9471903303291</v>
       </c>
       <c r="S3" t="n">
-        <v>71.4737554886633</v>
+        <v>65.8689773512399</v>
       </c>
       <c r="T3" t="n">
-        <v>80.3284855690696</v>
+        <v>74.4047568207499</v>
       </c>
       <c r="U3" t="n">
-        <v>80.6443193161057</v>
+        <v>76.9373243667883</v>
       </c>
       <c r="V3" t="n">
-        <v>62.1695670877995</v>
+        <v>58.3795951193669</v>
       </c>
       <c r="W3" t="n">
-        <v>73.9050711866541</v>
+        <v>67.8381989875615</v>
       </c>
       <c r="X3" t="n">
-        <v>80.8144123677494</v>
+        <v>76.622502605824</v>
       </c>
       <c r="Y3" t="n">
-        <v>79.0374493910452</v>
+        <v>72.6115401043147</v>
       </c>
       <c r="Z3" t="n">
-        <v>75.7808846615385</v>
+        <v>71.8071365008878</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.3260444320408</v>
+        <v>71.6093764742382</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.5089518826729</v>
+        <v>72.9261930424046</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.0247092767603</v>
+        <v>56.8911859252738</v>
       </c>
       <c r="AD3" t="n">
-        <v>76.2987538466259</v>
+        <v>71.0929137712719</v>
       </c>
       <c r="AE3" t="n">
-        <v>79.4067057066483</v>
+        <v>73.5297312316548</v>
       </c>
       <c r="AF3" t="n">
-        <v>72.9381749485059</v>
+        <v>67.7578239176797</v>
       </c>
       <c r="AG3" t="n">
-        <v>81.4153609233938</v>
+        <v>77.6775011765314</v>
       </c>
       <c r="AH3" t="n">
-        <v>75.7357150977151</v>
+        <v>72.8904184843683</v>
       </c>
     </row>
     <row r="4">
@@ -762,103 +762,103 @@
         <v>2017</v>
       </c>
       <c r="B4" t="n">
-        <v>75.8301400883615</v>
+        <v>70.1253185213265</v>
       </c>
       <c r="C4" t="n">
-        <v>84.6022579409791</v>
+        <v>79.6202499737344</v>
       </c>
       <c r="D4" t="n">
-        <v>75.7528940596229</v>
+        <v>72.1237326563723</v>
       </c>
       <c r="E4" t="n">
-        <v>71.04991625529</v>
+        <v>63.8973379483022</v>
       </c>
       <c r="F4" t="n">
-        <v>78.7099507873088</v>
+        <v>73.2808797505834</v>
       </c>
       <c r="G4" t="n">
-        <v>83.1097553990885</v>
+        <v>76.4526566226059</v>
       </c>
       <c r="H4" t="n">
-        <v>77.0339280826548</v>
+        <v>71.7751505588398</v>
       </c>
       <c r="I4" t="n">
-        <v>69.56900281729</v>
+        <v>64.4435952657624</v>
       </c>
       <c r="J4" t="n">
-        <v>76.1110497879865</v>
+        <v>69.3676583931365</v>
       </c>
       <c r="K4" t="n">
-        <v>77.4848183673472</v>
+        <v>74.3620503528348</v>
       </c>
       <c r="L4" t="n">
-        <v>81.6563640696602</v>
+        <v>74.9247411171107</v>
       </c>
       <c r="M4" t="n">
-        <v>76.8152734896041</v>
+        <v>71.6550899468989</v>
       </c>
       <c r="N4" t="n">
-        <v>57.6821144384076</v>
+        <v>53.1041330863164</v>
       </c>
       <c r="O4" t="n">
-        <v>76.6974504921995</v>
+        <v>71.1618793417143</v>
       </c>
       <c r="P4" t="n">
-        <v>82.4054908958223</v>
+        <v>77.2704559800663</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.5596522231231</v>
+        <v>69.6973698224286</v>
       </c>
       <c r="R4" t="n">
-        <v>75.1242831996924</v>
+        <v>70.1834754448479</v>
       </c>
       <c r="S4" t="n">
-        <v>73.0670700061594</v>
+        <v>67.2547461387611</v>
       </c>
       <c r="T4" t="n">
-        <v>78.2255397952059</v>
+        <v>72.6539577550253</v>
       </c>
       <c r="U4" t="n">
-        <v>80.4193513429257</v>
+        <v>77.0464548248095</v>
       </c>
       <c r="V4" t="n">
-        <v>63.6395654265633</v>
+        <v>58.2760547900766</v>
       </c>
       <c r="W4" t="n">
-        <v>76.0363619197779</v>
+        <v>68.8353030254307</v>
       </c>
       <c r="X4" t="n">
-        <v>81.5377861737612</v>
+        <v>77.404976524426</v>
       </c>
       <c r="Y4" t="n">
-        <v>79.91267728446</v>
+        <v>73.9851354274931</v>
       </c>
       <c r="Z4" t="n">
-        <v>75.3934074781884</v>
+        <v>70.2934500168532</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.8151085398098</v>
+        <v>73.5045701717388</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.5307314150411</v>
+        <v>74.5144641883171</v>
       </c>
       <c r="AC4" t="n">
-        <v>65.2856197982226</v>
+        <v>56.6817232945334</v>
       </c>
       <c r="AD4" t="n">
-        <v>75.3047173651903</v>
+        <v>70.293172768235</v>
       </c>
       <c r="AE4" t="n">
-        <v>79.4176775947884</v>
+        <v>73.805325765507</v>
       </c>
       <c r="AF4" t="n">
-        <v>72.0420262010304</v>
+        <v>65.6743413679152</v>
       </c>
       <c r="AG4" t="n">
-        <v>84.1839536627531</v>
+        <v>79.0882376955603</v>
       </c>
       <c r="AH4" t="n">
-        <v>74.2810747731963</v>
+        <v>70.2024653014567</v>
       </c>
     </row>
     <row r="5">
@@ -866,103 +866,103 @@
         <v>2018</v>
       </c>
       <c r="B5" t="n">
-        <v>74.8623525545973</v>
+        <v>69.660605437158</v>
       </c>
       <c r="C5" t="n">
-        <v>82.0555537506603</v>
+        <v>78.3612439088406</v>
       </c>
       <c r="D5" t="n">
-        <v>73.0795269658488</v>
+        <v>68.9216499647639</v>
       </c>
       <c r="E5" t="n">
-        <v>72.5418827318153</v>
+        <v>66.6071321758248</v>
       </c>
       <c r="F5" t="n">
-        <v>77.2899697431407</v>
+        <v>71.7751454852797</v>
       </c>
       <c r="G5" t="n">
-        <v>81.4158240728926</v>
+        <v>76.5084688818324</v>
       </c>
       <c r="H5" t="n">
-        <v>75.49836432261</v>
+        <v>69.9413639750518</v>
       </c>
       <c r="I5" t="n">
-        <v>68.0518581084137</v>
+        <v>63.8964227742616</v>
       </c>
       <c r="J5" t="n">
-        <v>74.7842784751921</v>
+        <v>69.0961576166819</v>
       </c>
       <c r="K5" t="n">
-        <v>74.6566980283799</v>
+        <v>72.8175549500064</v>
       </c>
       <c r="L5" t="n">
-        <v>79.1331167484006</v>
+        <v>74.6396361615558</v>
       </c>
       <c r="M5" t="n">
-        <v>76.007042236298</v>
+        <v>70.8270817059704</v>
       </c>
       <c r="N5" t="n">
-        <v>60.4631160587947</v>
+        <v>54.551736865243</v>
       </c>
       <c r="O5" t="n">
-        <v>76.4611622136161</v>
+        <v>71.0389425200887</v>
       </c>
       <c r="P5" t="n">
-        <v>79.266106729386</v>
+        <v>74.9022701337598</v>
       </c>
       <c r="Q5" t="n">
-        <v>74.4877963007427</v>
+        <v>67.9472178013754</v>
       </c>
       <c r="R5" t="n">
-        <v>75.3959744179049</v>
+        <v>71.5526633094846</v>
       </c>
       <c r="S5" t="n">
-        <v>71.8389518201527</v>
+        <v>66.1784462820403</v>
       </c>
       <c r="T5" t="n">
-        <v>76.0145576721728</v>
+        <v>69.3081064773316</v>
       </c>
       <c r="U5" t="n">
-        <v>81.0136360377383</v>
+        <v>77.0045189994264</v>
       </c>
       <c r="V5" t="n">
-        <v>65.5238254080199</v>
+        <v>59.5673049284148</v>
       </c>
       <c r="W5" t="n">
-        <v>74.1340684400586</v>
+        <v>68.1512410099465</v>
       </c>
       <c r="X5" t="n">
-        <v>78.2085940033129</v>
+        <v>74.1900448484075</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.7787061008389</v>
+        <v>69.7793606110602</v>
       </c>
       <c r="Z5" t="n">
-        <v>75.3326019780538</v>
+        <v>70.6238244668365</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.7626436136612</v>
+        <v>71.8684724566607</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.2977703151831</v>
+        <v>75.4734502997474</v>
       </c>
       <c r="AC5" t="n">
-        <v>64.459915580068</v>
+        <v>56.2329698460823</v>
       </c>
       <c r="AD5" t="n">
-        <v>77.5092230289053</v>
+        <v>73.0451104075534</v>
       </c>
       <c r="AE5" t="n">
-        <v>80.1646711862321</v>
+        <v>74.7280325830544</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.0879627477978</v>
+        <v>65.6231272472132</v>
       </c>
       <c r="AG5" t="n">
-        <v>80.7313353336845</v>
+        <v>76.7627254456714</v>
       </c>
       <c r="AH5" t="n">
-        <v>73.6835787989941</v>
+        <v>69.4065799428354</v>
       </c>
     </row>
     <row r="6">
@@ -970,103 +970,103 @@
         <v>2019</v>
       </c>
       <c r="B6" t="n">
-        <v>74.3373925269714</v>
+        <v>69.3134086521624</v>
       </c>
       <c r="C6" t="n">
-        <v>83.6856034110994</v>
+        <v>79.5925434523976</v>
       </c>
       <c r="D6" t="n">
-        <v>73.3126880574038</v>
+        <v>69.5913865981968</v>
       </c>
       <c r="E6" t="n">
-        <v>72.590765207104</v>
+        <v>67.1470592396088</v>
       </c>
       <c r="F6" t="n">
-        <v>77.7763854685318</v>
+        <v>70.7784905443588</v>
       </c>
       <c r="G6" t="n">
-        <v>81.559108231035</v>
+        <v>77.073056082793</v>
       </c>
       <c r="H6" t="n">
-        <v>70.662171863033</v>
+        <v>67.9018452537703</v>
       </c>
       <c r="I6" t="n">
-        <v>69.0079429897922</v>
+        <v>64.6272930535847</v>
       </c>
       <c r="J6" t="n">
-        <v>73.8432195012318</v>
+        <v>68.2167295612866</v>
       </c>
       <c r="K6" t="n">
-        <v>73.7555092580888</v>
+        <v>71.9004443615474</v>
       </c>
       <c r="L6" t="n">
-        <v>78.091200644105</v>
+        <v>72.5320633401378</v>
       </c>
       <c r="M6" t="n">
-        <v>74.6054550947771</v>
+        <v>70.0651187529461</v>
       </c>
       <c r="N6" t="n">
-        <v>57.340427413852</v>
+        <v>51.4083521496747</v>
       </c>
       <c r="O6" t="n">
-        <v>76.0898788399741</v>
+        <v>70.1442675160916</v>
       </c>
       <c r="P6" t="n">
-        <v>79.1782004256806</v>
+        <v>74.7688366575329</v>
       </c>
       <c r="Q6" t="n">
-        <v>73.4745995928039</v>
+        <v>67.3896710914246</v>
       </c>
       <c r="R6" t="n">
-        <v>74.3666913989858</v>
+        <v>70.2283484817464</v>
       </c>
       <c r="S6" t="n">
-        <v>70.0260638290118</v>
+        <v>64.9065768256766</v>
       </c>
       <c r="T6" t="n">
-        <v>78.6646440598322</v>
+        <v>73.2543971004098</v>
       </c>
       <c r="U6" t="n">
-        <v>80.3535410910602</v>
+        <v>76.8518548352432</v>
       </c>
       <c r="V6" t="n">
-        <v>66.6718389430869</v>
+        <v>60.3610897669539</v>
       </c>
       <c r="W6" t="n">
-        <v>72.623959451351</v>
+        <v>67.3230719791473</v>
       </c>
       <c r="X6" t="n">
-        <v>78.6518187177477</v>
+        <v>74.8184022071836</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.7957564190507</v>
+        <v>66.6436518242352</v>
       </c>
       <c r="Z6" t="n">
-        <v>74.0833545750396</v>
+        <v>69.3829046973934</v>
       </c>
       <c r="AA6" t="n">
-        <v>78.4069332283537</v>
+        <v>73.4486757509681</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.1138810949821</v>
+        <v>73.8621979008407</v>
       </c>
       <c r="AC6" t="n">
-        <v>65.7795503587155</v>
+        <v>57.8340259127082</v>
       </c>
       <c r="AD6" t="n">
-        <v>78.4708808225788</v>
+        <v>73.8780738018497</v>
       </c>
       <c r="AE6" t="n">
-        <v>78.6788235292722</v>
+        <v>73.6546990668885</v>
       </c>
       <c r="AF6" t="n">
-        <v>71.347237936902</v>
+        <v>64.3280515317968</v>
       </c>
       <c r="AG6" t="n">
-        <v>83.6279260586879</v>
+        <v>79.5841166150952</v>
       </c>
       <c r="AH6" t="n">
-        <v>72.4695043278451</v>
+        <v>69.750291926188</v>
       </c>
     </row>
     <row r="7">
@@ -1074,103 +1074,103 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>70.0120913442734</v>
+        <v>69.4670555259819</v>
       </c>
       <c r="C7" t="n">
-        <v>75.8705940192778</v>
+        <v>76.2487175969157</v>
       </c>
       <c r="D7" t="n">
-        <v>68.8469979522538</v>
+        <v>69.7390521160913</v>
       </c>
       <c r="E7" t="n">
-        <v>71.9498047223471</v>
+        <v>70.0731296292541</v>
       </c>
       <c r="F7" t="n">
-        <v>73.752912567444</v>
+        <v>72.0425755999308</v>
       </c>
       <c r="G7" t="n">
-        <v>76.7367046327001</v>
+        <v>77.8491511487491</v>
       </c>
       <c r="H7" t="n">
-        <v>71.9546574453156</v>
+        <v>71.5860646873326</v>
       </c>
       <c r="I7" t="n">
-        <v>68.075356086178</v>
+        <v>66.1694626860045</v>
       </c>
       <c r="J7" t="n">
-        <v>67.0690360688389</v>
+        <v>67.0704181532493</v>
       </c>
       <c r="K7" t="n">
-        <v>65.7079588440938</v>
+        <v>71.8874172298055</v>
       </c>
       <c r="L7" t="n">
-        <v>78.0843156280129</v>
+        <v>77.5653913526161</v>
       </c>
       <c r="M7" t="n">
-        <v>70.2606972239958</v>
+        <v>68.33655382471</v>
       </c>
       <c r="N7" t="n">
-        <v>56.0296191706869</v>
+        <v>55.4145999651383</v>
       </c>
       <c r="O7" t="n">
-        <v>73.7568862581298</v>
+        <v>72.2486897588496</v>
       </c>
       <c r="P7" t="n">
-        <v>75.5761685614198</v>
+        <v>74.3096501392913</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.3651063198766</v>
+        <v>66.0614944397721</v>
       </c>
       <c r="R7" t="n">
-        <v>71.8979992833759</v>
+        <v>70.5864329215538</v>
       </c>
       <c r="S7" t="n">
-        <v>66.2192403870255</v>
+        <v>65.3952213997715</v>
       </c>
       <c r="T7" t="n">
-        <v>75.1114798013933</v>
+        <v>75.589833411884</v>
       </c>
       <c r="U7" t="n">
-        <v>77.6950493889525</v>
+        <v>78.2910882423317</v>
       </c>
       <c r="V7" t="n">
-        <v>60.5885357731194</v>
+        <v>58.6540624333194</v>
       </c>
       <c r="W7" t="n">
-        <v>67.9912518365873</v>
+        <v>65.5008017831689</v>
       </c>
       <c r="X7" t="n">
-        <v>78.5343326771821</v>
+        <v>76.4987415827687</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.2876398528525</v>
+        <v>65.9044777550512</v>
       </c>
       <c r="Z7" t="n">
-        <v>64.9858665221845</v>
+        <v>65.0661717693602</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.3403034853286</v>
+        <v>73.4647989821486</v>
       </c>
       <c r="AB7" t="n">
-        <v>71.0938757610447</v>
+        <v>72.0249001480512</v>
       </c>
       <c r="AC7" t="n">
-        <v>60.4318461336363</v>
+        <v>58.7627167012913</v>
       </c>
       <c r="AD7" t="n">
-        <v>73.0213281678845</v>
+        <v>72.7941648061465</v>
       </c>
       <c r="AE7" t="n">
-        <v>72.5960801071779</v>
+        <v>72.4310109917026</v>
       </c>
       <c r="AF7" t="n">
-        <v>70.0234034845425</v>
+        <v>67.4148233155918</v>
       </c>
       <c r="AG7" t="n">
-        <v>78.0923194031556</v>
+        <v>78.0984393370001</v>
       </c>
       <c r="AH7" t="n">
-        <v>64.9986057245698</v>
+        <v>65.8721840165075</v>
       </c>
     </row>
     <row r="8">
@@ -1178,103 +1178,103 @@
         <v>2021</v>
       </c>
       <c r="B8" t="n">
-        <v>69.9702821701353</v>
+        <v>70.002558016151</v>
       </c>
       <c r="C8" t="n">
-        <v>79.772428319428</v>
+        <v>79.2029009477701</v>
       </c>
       <c r="D8" t="n">
-        <v>69.3837996089027</v>
+        <v>69.7914387964085</v>
       </c>
       <c r="E8" t="n">
-        <v>70.982538503462</v>
+        <v>72.0024183882584</v>
       </c>
       <c r="F8" t="n">
-        <v>72.0725437259494</v>
+        <v>71.6039257626356</v>
       </c>
       <c r="G8" t="n">
-        <v>79.0453510782733</v>
+        <v>77.6165737437064</v>
       </c>
       <c r="H8" t="n">
-        <v>68.8034048481725</v>
+        <v>71.5953066567492</v>
       </c>
       <c r="I8" t="n">
-        <v>69.0885617228424</v>
+        <v>66.1761351953119</v>
       </c>
       <c r="J8" t="n">
-        <v>72.367898122283</v>
+        <v>70.2061194012584</v>
       </c>
       <c r="K8" t="n">
-        <v>67.6630424552808</v>
+        <v>73.8298452122807</v>
       </c>
       <c r="L8" t="n">
-        <v>76.3157722784561</v>
+        <v>74.3509575600338</v>
       </c>
       <c r="M8" t="n">
-        <v>70.2989942013933</v>
+        <v>69.6342611778572</v>
       </c>
       <c r="N8" t="n">
-        <v>56.7462636879378</v>
+        <v>56.3323386199288</v>
       </c>
       <c r="O8" t="n">
-        <v>70.0668376329647</v>
+        <v>69.8361612647128</v>
       </c>
       <c r="P8" t="n">
-        <v>74.8240664802852</v>
+        <v>75.4568482983168</v>
       </c>
       <c r="Q8" t="n">
-        <v>66.8132955202953</v>
+        <v>66.4813468987327</v>
       </c>
       <c r="R8" t="n">
-        <v>69.4289510123383</v>
+        <v>69.740857647998</v>
       </c>
       <c r="S8" t="n">
-        <v>63.3363636663375</v>
+        <v>65.8849550369468</v>
       </c>
       <c r="T8" t="n">
-        <v>72.3946637151491</v>
+        <v>75.5330899396241</v>
       </c>
       <c r="U8" t="n">
-        <v>75.6703924315788</v>
+        <v>77.050679861173</v>
       </c>
       <c r="V8" t="n">
-        <v>59.0978033324043</v>
+        <v>58.2535707041676</v>
       </c>
       <c r="W8" t="n">
-        <v>64.7936291550601</v>
+        <v>65.5088881636608</v>
       </c>
       <c r="X8" t="n">
-        <v>74.7972899612016</v>
+        <v>74.8180397809316</v>
       </c>
       <c r="Y8" t="n">
-        <v>71.422958841362</v>
+        <v>69.56841289396</v>
       </c>
       <c r="Z8" t="n">
-        <v>67.7716756694617</v>
+        <v>67.7984313326587</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.2785010054947</v>
+        <v>72.6210845400357</v>
       </c>
       <c r="AB8" t="n">
-        <v>70.2117511553315</v>
+        <v>69.5416464227938</v>
       </c>
       <c r="AC8" t="n">
-        <v>66.5547116520231</v>
+        <v>63.0558338379789</v>
       </c>
       <c r="AD8" t="n">
-        <v>73.8880371682435</v>
+        <v>73.2686170276767</v>
       </c>
       <c r="AE8" t="n">
-        <v>75.3880601098445</v>
+        <v>74.7639511234944</v>
       </c>
       <c r="AF8" t="n">
-        <v>66.7728905114413</v>
+        <v>65.5513941397477</v>
       </c>
       <c r="AG8" t="n">
-        <v>75.4536068212785</v>
+        <v>77.1943677747954</v>
       </c>
       <c r="AH8" t="n">
-        <v>66.3679937990371</v>
+        <v>66.9351253018807</v>
       </c>
     </row>
     <row r="9">
@@ -1282,103 +1282,103 @@
         <v>2022</v>
       </c>
       <c r="B9" t="n">
-        <v>75.3497076702768</v>
+        <v>71.8402369622416</v>
       </c>
       <c r="C9" t="n">
-        <v>85.1638613623954</v>
+        <v>82.7618376049309</v>
       </c>
       <c r="D9" t="n">
-        <v>74.4922212007888</v>
+        <v>72.060848139881</v>
       </c>
       <c r="E9" t="n">
-        <v>78.5169009653322</v>
+        <v>75.2692966173109</v>
       </c>
       <c r="F9" t="n">
-        <v>76.8105430317832</v>
+        <v>71.8261466049005</v>
       </c>
       <c r="G9" t="n">
-        <v>83.1445416316063</v>
+        <v>79.9861970302786</v>
       </c>
       <c r="H9" t="n">
-        <v>70.6702553931729</v>
+        <v>68.582251098686</v>
       </c>
       <c r="I9" t="n">
-        <v>72.1798602252354</v>
+        <v>67.7029932929891</v>
       </c>
       <c r="J9" t="n">
-        <v>77.0166636493017</v>
+        <v>73.7781674775196</v>
       </c>
       <c r="K9" t="n">
-        <v>78.0792674898607</v>
+        <v>76.603438778949</v>
       </c>
       <c r="L9" t="n">
-        <v>77.9047664287175</v>
+        <v>72.7711409681106</v>
       </c>
       <c r="M9" t="n">
-        <v>72.8007498065537</v>
+        <v>69.2203178519301</v>
       </c>
       <c r="N9" t="n">
-        <v>60.6164929416595</v>
+        <v>56.7696754552775</v>
       </c>
       <c r="O9" t="n">
-        <v>75.6645775961386</v>
+        <v>71.6176855496164</v>
       </c>
       <c r="P9" t="n">
-        <v>80.6706183905894</v>
+        <v>78.202047561265</v>
       </c>
       <c r="Q9" t="n">
-        <v>77.083364839324</v>
+        <v>72.449936129353</v>
       </c>
       <c r="R9" t="n">
-        <v>75.0975286602858</v>
+        <v>71.2710248234153</v>
       </c>
       <c r="S9" t="n">
-        <v>70.9997617247119</v>
+        <v>67.909462604126</v>
       </c>
       <c r="T9" t="n">
-        <v>76.1540761899149</v>
+        <v>74.4959207393033</v>
       </c>
       <c r="U9" t="n">
-        <v>78.2104081804681</v>
+        <v>76.0680977465546</v>
       </c>
       <c r="V9" t="n">
-        <v>65.0196412158041</v>
+        <v>60.9700208800496</v>
       </c>
       <c r="W9" t="n">
-        <v>74.2533035200985</v>
+        <v>69.4082307165162</v>
       </c>
       <c r="X9" t="n">
-        <v>80.1080870499796</v>
+        <v>77.889214043435</v>
       </c>
       <c r="Y9" t="n">
-        <v>76.8941175492293</v>
+        <v>74.0295906865458</v>
       </c>
       <c r="Z9" t="n">
-        <v>73.860619690933</v>
+        <v>70.1039286589946</v>
       </c>
       <c r="AA9" t="n">
-        <v>81.3872693561548</v>
+        <v>78.6281100566498</v>
       </c>
       <c r="AB9" t="n">
-        <v>75.7800080213847</v>
+        <v>73.1790955662207</v>
       </c>
       <c r="AC9" t="n">
-        <v>70.0300323423345</v>
+        <v>65.2641939097696</v>
       </c>
       <c r="AD9" t="n">
-        <v>80.3827709998862</v>
+        <v>77.5559575156906</v>
       </c>
       <c r="AE9" t="n">
-        <v>77.5891261338241</v>
+        <v>73.667211851245</v>
       </c>
       <c r="AF9" t="n">
-        <v>71.5020304236862</v>
+        <v>67.3269972565829</v>
       </c>
       <c r="AG9" t="n">
-        <v>84.8701121865049</v>
+        <v>82.342659451513</v>
       </c>
       <c r="AH9" t="n">
-        <v>70.383194821974</v>
+        <v>68.2478871737699</v>
       </c>
     </row>
     <row r="10">
@@ -1386,103 +1386,207 @@
         <v>2023</v>
       </c>
       <c r="B10" t="n">
-        <v>76.2521285465482</v>
+        <v>72.12647701748</v>
       </c>
       <c r="C10" t="n">
-        <v>86.5452307718391</v>
+        <v>83.3204907624082</v>
       </c>
       <c r="D10" t="n">
-        <v>76.0439041082062</v>
+        <v>73.5059708736914</v>
       </c>
       <c r="E10" t="n">
-        <v>83.1824579209502</v>
+        <v>78.9022881303668</v>
       </c>
       <c r="F10" t="n">
-        <v>77.6970986151172</v>
+        <v>72.099309477548</v>
       </c>
       <c r="G10" t="n">
-        <v>85.2792686849405</v>
+        <v>81.7211362545354</v>
       </c>
       <c r="H10" t="n">
-        <v>72.4386747627155</v>
+        <v>67.7482908617465</v>
       </c>
       <c r="I10" t="n">
-        <v>72.4294221406184</v>
+        <v>67.8526557550266</v>
       </c>
       <c r="J10" t="n">
-        <v>74.5234259588324</v>
+        <v>70.6653901049656</v>
       </c>
       <c r="K10" t="n">
-        <v>79.4919253678562</v>
+        <v>77.5324763014324</v>
       </c>
       <c r="L10" t="n">
-        <v>82.1078354785634</v>
+        <v>76.309349434302</v>
       </c>
       <c r="M10" t="n">
-        <v>75.0481584015865</v>
+        <v>71.0157706840822</v>
       </c>
       <c r="N10" t="n">
-        <v>59.9577941141689</v>
+        <v>55.714846186516</v>
       </c>
       <c r="O10" t="n">
-        <v>78.3130878523542</v>
+        <v>73.2102588442772</v>
       </c>
       <c r="P10" t="n">
-        <v>81.4351676345986</v>
+        <v>77.8626425152136</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.0732887919729</v>
+        <v>69.7292218413288</v>
       </c>
       <c r="R10" t="n">
-        <v>75.2743090877831</v>
+        <v>70.3016693535348</v>
       </c>
       <c r="S10" t="n">
-        <v>67.5157040495769</v>
+        <v>63.9537393228745</v>
       </c>
       <c r="T10" t="n">
-        <v>79.7045241792474</v>
+        <v>76.5879533881873</v>
       </c>
       <c r="U10" t="n">
-        <v>79.3299398299147</v>
+        <v>76.9755915145676</v>
       </c>
       <c r="V10" t="n">
-        <v>65.1617292117665</v>
+        <v>60.5977176536709</v>
       </c>
       <c r="W10" t="n">
-        <v>74.1579176918931</v>
+        <v>69.0303037523967</v>
       </c>
       <c r="X10" t="n">
-        <v>82.1713639628737</v>
+        <v>79.2201521585316</v>
       </c>
       <c r="Y10" t="n">
-        <v>74.1986794230043</v>
+        <v>70.9176512326814</v>
       </c>
       <c r="Z10" t="n">
-        <v>76.2346270889814</v>
+        <v>71.615934125459</v>
       </c>
       <c r="AA10" t="n">
-        <v>82.1928270755161</v>
+        <v>78.457161033177</v>
       </c>
       <c r="AB10" t="n">
-        <v>77.4692593327059</v>
+        <v>74.1204795382321</v>
       </c>
       <c r="AC10" t="n">
-        <v>70.5823450993367</v>
+        <v>65.4773577406434</v>
       </c>
       <c r="AD10" t="n">
-        <v>82.6257751844252</v>
+        <v>78.0820345161813</v>
       </c>
       <c r="AE10" t="n">
-        <v>80.6561301585054</v>
+        <v>76.3159483630336</v>
       </c>
       <c r="AF10" t="n">
-        <v>72.2057910158517</v>
+        <v>67.6516536074022</v>
       </c>
       <c r="AG10" t="n">
-        <v>85.2123935751813</v>
+        <v>82.0032469827401</v>
       </c>
       <c r="AH10" t="n">
-        <v>73.5895687106932</v>
+        <v>69.7952235355978</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B11" t="n">
+        <v>73.9314849070056</v>
+      </c>
+      <c r="C11" t="n">
+        <v>83.451917333442</v>
+      </c>
+      <c r="D11" t="n">
+        <v>76.4886066992856</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75.0351641084405</v>
+      </c>
+      <c r="F11" t="n">
+        <v>72.2374821342023</v>
+      </c>
+      <c r="G11" t="n">
+        <v>82.8034102501754</v>
+      </c>
+      <c r="H11" t="n">
+        <v>68.9947822458207</v>
+      </c>
+      <c r="I11" t="n">
+        <v>68.6200974509816</v>
+      </c>
+      <c r="J11" t="n">
+        <v>73.0719720362456</v>
+      </c>
+      <c r="K11" t="n">
+        <v>77.0548457590828</v>
+      </c>
+      <c r="L11" t="n">
+        <v>78.8020378152937</v>
+      </c>
+      <c r="M11" t="n">
+        <v>71.1739144563106</v>
+      </c>
+      <c r="N11" t="n">
+        <v>59.8403929981748</v>
+      </c>
+      <c r="O11" t="n">
+        <v>74.9322432450912</v>
+      </c>
+      <c r="P11" t="n">
+        <v>79.1792092465512</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>71.1836907778924</v>
+      </c>
+      <c r="R11" t="n">
+        <v>72.8296241618354</v>
+      </c>
+      <c r="S11" t="n">
+        <v>67.3219456946235</v>
+      </c>
+      <c r="T11" t="n">
+        <v>77.7284704994256</v>
+      </c>
+      <c r="U11" t="n">
+        <v>78.8218717067594</v>
+      </c>
+      <c r="V11" t="n">
+        <v>65.3428752422796</v>
+      </c>
+      <c r="W11" t="n">
+        <v>73.0093841020586</v>
+      </c>
+      <c r="X11" t="n">
+        <v>79.270576588965</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>72.7514346526831</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>73.10091946391</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>77.8649818175793</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>74.7754224392306</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>66.57359059691</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>78.1050845331071</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>79.5967359261943</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70.7016246573374</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>83.437036292201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>76.202859116997</v>
       </c>
     </row>
   </sheetData>
